--- a/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
+++ b/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\26. moo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366DA59A-3D59-4D58-9D40-CE2DF27D86BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F507B377-8EB4-47AF-B8DB-F1BF8284FB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -225,10 +225,10 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>HJU-ad35asd-s</t>
   </si>
   <si>
-    <t>HJU-ad35asd-s</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -789,10 +789,10 @@
     </row>
     <row r="2" spans="1:49 16382:16383" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>

--- a/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
+++ b/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F507B377-8EB4-47AF-B8DB-F1BF8284FB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FC73F6-7089-4BAB-9561-84D20C8EC81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
     <t>HJU-ad35asd-s</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
+++ b/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\26. moo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FC73F6-7089-4BAB-9561-84D20C8EC81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DB146C-27E1-41FC-8B2C-906385105925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="1776" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>contractNo</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -595,8 +598,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFC996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,11 +882,9 @@
       </c>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
-      <c r="AN2" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="AN2" s="3"/>
       <c r="AO2" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>64</v>

--- a/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
+++ b/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\26. moo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DB146C-27E1-41FC-8B2C-906385105925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1D9D9C-DC57-4DE1-9F9C-805D898D951A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1776" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -228,10 +228,10 @@
     <t>HJU-ad35asd-s</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -795,7 +795,7 @@
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
@@ -884,7 +884,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>64</v>

--- a/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
+++ b/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1D9D9C-DC57-4DE1-9F9C-805D898D951A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1011FB2E-E136-4DA2-9FED-1CA33BE2FBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -602,56 +602,55 @@
       <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.44140625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="14.109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="11.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="8.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14.140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" style="1" customWidth="1"/>
+    <col min="33" max="34" width="8.7109375" style="1" customWidth="1"/>
     <col min="35" max="35" width="9" style="1" customWidth="1"/>
-    <col min="36" max="36" width="42.77734375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="42.7109375" style="1" customWidth="1"/>
     <col min="37" max="37" width="10" style="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="14.44140625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.6640625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="17.21875" style="1" customWidth="1"/>
-    <col min="42" max="42" width="18.44140625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="10.21875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="8.77734375" style="1" customWidth="1"/>
-    <col min="45" max="16379" width="2.6640625" style="1"/>
-    <col min="16382" max="16384" width="2.6640625" style="1"/>
+    <col min="38" max="38" width="12.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="18.42578125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="10.28515625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="8.7109375" style="1" customWidth="1"/>
+    <col min="45" max="16379" width="2.7109375" style="1"/>
+    <col min="16382" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49 16382:16383" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49 16382:16383" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -790,7 +789,7 @@
       <c r="AV1" s="2"/>
       <c r="AW1" s="2"/>
     </row>
-    <row r="2" spans="1:49 16382:16383" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49 16382:16383" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -901,7 +900,7 @@
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
     </row>
-    <row r="3" spans="1:49 16382:16383" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49 16382:16383" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -954,7 +953,7 @@
       <c r="XFB3"/>
       <c r="XFC3"/>
     </row>
-    <row r="4" spans="1:49 16382:16383" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49 16382:16383" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1005,7 +1004,7 @@
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
     </row>
-    <row r="5" spans="1:49 16382:16383" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49 16382:16383" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1056,7 +1055,7 @@
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
     </row>
-    <row r="6" spans="1:49 16382:16383" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49 16382:16383" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1107,7 +1106,7 @@
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
     </row>
-    <row r="7" spans="1:49 16382:16383" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49 16382:16383" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1156,7 +1155,7 @@
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
     </row>
-    <row r="8" spans="1:49 16382:16383" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49 16382:16383" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
@@ -1206,7 +1205,7 @@
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
     </row>
-    <row r="9" spans="1:49 16382:16383" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49 16382:16383" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1256,7 +1255,7 @@
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
     </row>
-    <row r="10" spans="1:49 16382:16383" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49 16382:16383" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1306,7 +1305,7 @@
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
     </row>
-    <row r="11" spans="1:49 16382:16383" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49 16382:16383" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1356,7 +1355,7 @@
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
     </row>
-    <row r="12" spans="1:49 16382:16383" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49 16382:16383" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1407,7 +1406,7 @@
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
     </row>
-    <row r="13" spans="1:49 16382:16383" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49 16382:16383" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1457,7 +1456,7 @@
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
     </row>
-    <row r="14" spans="1:49 16382:16383" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49 16382:16383" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1508,7 +1507,7 @@
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
     </row>
-    <row r="15" spans="1:49 16382:16383" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49 16382:16383" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1559,7 +1558,7 @@
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
     </row>
-    <row r="16" spans="1:49 16382:16383" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49 16382:16383" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1610,7 +1609,7 @@
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
     </row>
-    <row r="17" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1661,7 +1660,7 @@
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
     </row>
-    <row r="18" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1712,7 +1711,7 @@
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
     </row>
-    <row r="19" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1763,7 +1762,7 @@
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
     </row>
-    <row r="20" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1814,7 +1813,7 @@
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
     </row>
-    <row r="21" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1865,7 +1864,7 @@
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
     </row>
-    <row r="22" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1916,7 +1915,7 @@
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
     </row>
-    <row r="23" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1967,7 +1966,7 @@
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
     </row>
-    <row r="24" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2018,7 +2017,7 @@
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
     </row>
-    <row r="25" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2069,7 +2068,7 @@
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
     </row>
-    <row r="26" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2120,7 +2119,7 @@
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
     </row>
-    <row r="27" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2171,7 +2170,7 @@
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
     </row>
-    <row r="28" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2222,7 +2221,7 @@
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
     </row>
-    <row r="29" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2273,7 +2272,7 @@
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
     </row>
-    <row r="30" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2324,7 +2323,7 @@
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
     </row>
-    <row r="31" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2375,7 +2374,7 @@
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
     </row>
-    <row r="32" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2426,7 +2425,7 @@
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
     </row>
-    <row r="33" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2477,7 +2476,7 @@
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>
     </row>
-    <row r="34" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2528,7 +2527,7 @@
       <c r="AV34" s="2"/>
       <c r="AW34" s="2"/>
     </row>
-    <row r="35" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2579,7 +2578,7 @@
       <c r="AV35" s="2"/>
       <c r="AW35" s="2"/>
     </row>
-    <row r="36" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2630,7 +2629,7 @@
       <c r="AV36" s="2"/>
       <c r="AW36" s="2"/>
     </row>
-    <row r="37" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2681,7 +2680,7 @@
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
     </row>
-    <row r="38" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2732,7 +2731,7 @@
       <c r="AV38" s="2"/>
       <c r="AW38" s="2"/>
     </row>
-    <row r="39" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2783,7 +2782,7 @@
       <c r="AV39" s="2"/>
       <c r="AW39" s="2"/>
     </row>
-    <row r="40" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2834,7 +2833,7 @@
       <c r="AV40" s="2"/>
       <c r="AW40" s="2"/>
     </row>
-    <row r="41" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2885,7 +2884,7 @@
       <c r="AV41" s="2"/>
       <c r="AW41" s="2"/>
     </row>
-    <row r="42" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2936,7 +2935,7 @@
       <c r="AV42" s="2"/>
       <c r="AW42" s="2"/>
     </row>
-    <row r="43" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2987,7 +2986,7 @@
       <c r="AV43" s="2"/>
       <c r="AW43" s="2"/>
     </row>
-    <row r="44" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3038,7 +3037,7 @@
       <c r="AV44" s="2"/>
       <c r="AW44" s="2"/>
     </row>
-    <row r="45" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3089,7 +3088,7 @@
       <c r="AV45" s="2"/>
       <c r="AW45" s="2"/>
     </row>
-    <row r="46" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3140,7 +3139,7 @@
       <c r="AV46" s="2"/>
       <c r="AW46" s="2"/>
     </row>
-    <row r="47" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3191,7 +3190,7 @@
       <c r="AV47" s="2"/>
       <c r="AW47" s="2"/>
     </row>
-    <row r="48" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3242,7 +3241,7 @@
       <c r="AV48" s="2"/>
       <c r="AW48" s="2"/>
     </row>
-    <row r="49" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3293,7 +3292,7 @@
       <c r="AV49" s="2"/>
       <c r="AW49" s="2"/>
     </row>
-    <row r="50" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3344,7 +3343,7 @@
       <c r="AV50" s="2"/>
       <c r="AW50" s="2"/>
     </row>
-    <row r="51" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3395,7 +3394,7 @@
       <c r="AV51" s="2"/>
       <c r="AW51" s="2"/>
     </row>
-    <row r="52" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3446,7 +3445,7 @@
       <c r="AV52" s="2"/>
       <c r="AW52" s="2"/>
     </row>
-    <row r="53" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3497,7 +3496,7 @@
       <c r="AV53" s="2"/>
       <c r="AW53" s="2"/>
     </row>
-    <row r="54" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3548,7 +3547,7 @@
       <c r="AV54" s="2"/>
       <c r="AW54" s="2"/>
     </row>
-    <row r="55" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3599,7 +3598,7 @@
       <c r="AV55" s="2"/>
       <c r="AW55" s="2"/>
     </row>
-    <row r="56" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3650,7 +3649,7 @@
       <c r="AV56" s="2"/>
       <c r="AW56" s="2"/>
     </row>
-    <row r="57" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3701,7 +3700,7 @@
       <c r="AV57" s="2"/>
       <c r="AW57" s="2"/>
     </row>
-    <row r="58" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3752,7 +3751,7 @@
       <c r="AV58" s="2"/>
       <c r="AW58" s="2"/>
     </row>
-    <row r="59" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3803,7 +3802,7 @@
       <c r="AV59" s="2"/>
       <c r="AW59" s="2"/>
     </row>
-    <row r="60" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3854,7 +3853,7 @@
       <c r="AV60" s="2"/>
       <c r="AW60" s="2"/>
     </row>
-    <row r="61" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3905,7 +3904,7 @@
       <c r="AV61" s="2"/>
       <c r="AW61" s="2"/>
     </row>
-    <row r="62" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3956,7 +3955,7 @@
       <c r="AV62" s="2"/>
       <c r="AW62" s="2"/>
     </row>
-    <row r="63" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4007,7 +4006,7 @@
       <c r="AV63" s="2"/>
       <c r="AW63" s="2"/>
     </row>
-    <row r="64" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4058,7 +4057,7 @@
       <c r="AV64" s="2"/>
       <c r="AW64" s="2"/>
     </row>
-    <row r="65" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4109,7 +4108,7 @@
       <c r="AV65" s="2"/>
       <c r="AW65" s="2"/>
     </row>
-    <row r="66" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4160,7 +4159,7 @@
       <c r="AV66" s="2"/>
       <c r="AW66" s="2"/>
     </row>
-    <row r="67" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4211,7 +4210,7 @@
       <c r="AV67" s="2"/>
       <c r="AW67" s="2"/>
     </row>
-    <row r="68" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4262,7 +4261,7 @@
       <c r="AV68" s="2"/>
       <c r="AW68" s="2"/>
     </row>
-    <row r="69" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4313,7 +4312,7 @@
       <c r="AV69" s="2"/>
       <c r="AW69" s="2"/>
     </row>
-    <row r="70" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4364,7 +4363,7 @@
       <c r="AV70" s="2"/>
       <c r="AW70" s="2"/>
     </row>
-    <row r="71" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4415,7 +4414,7 @@
       <c r="AV71" s="2"/>
       <c r="AW71" s="2"/>
     </row>
-    <row r="72" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4466,7 +4465,7 @@
       <c r="AV72" s="2"/>
       <c r="AW72" s="2"/>
     </row>
-    <row r="73" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4517,7 +4516,7 @@
       <c r="AV73" s="2"/>
       <c r="AW73" s="2"/>
     </row>
-    <row r="74" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4568,7 +4567,7 @@
       <c r="AV74" s="2"/>
       <c r="AW74" s="2"/>
     </row>
-    <row r="75" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4619,7 +4618,7 @@
       <c r="AV75" s="2"/>
       <c r="AW75" s="2"/>
     </row>
-    <row r="76" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4670,7 +4669,7 @@
       <c r="AV76" s="2"/>
       <c r="AW76" s="2"/>
     </row>
-    <row r="77" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4721,7 +4720,7 @@
       <c r="AV77" s="2"/>
       <c r="AW77" s="2"/>
     </row>
-    <row r="78" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4772,7 +4771,7 @@
       <c r="AV78" s="2"/>
       <c r="AW78" s="2"/>
     </row>
-    <row r="79" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4823,7 +4822,7 @@
       <c r="AV79" s="2"/>
       <c r="AW79" s="2"/>
     </row>
-    <row r="80" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4874,7 +4873,7 @@
       <c r="AV80" s="2"/>
       <c r="AW80" s="2"/>
     </row>
-    <row r="81" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4925,7 +4924,7 @@
       <c r="AV81" s="2"/>
       <c r="AW81" s="2"/>
     </row>
-    <row r="82" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4976,7 +4975,7 @@
       <c r="AV82" s="2"/>
       <c r="AW82" s="2"/>
     </row>
-    <row r="83" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5027,7 +5026,7 @@
       <c r="AV83" s="2"/>
       <c r="AW83" s="2"/>
     </row>
-    <row r="84" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5078,7 +5077,7 @@
       <c r="AV84" s="2"/>
       <c r="AW84" s="2"/>
     </row>
-    <row r="85" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5129,7 +5128,7 @@
       <c r="AV85" s="2"/>
       <c r="AW85" s="2"/>
     </row>
-    <row r="86" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5180,7 +5179,7 @@
       <c r="AV86" s="2"/>
       <c r="AW86" s="2"/>
     </row>
-    <row r="87" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5231,7 +5230,7 @@
       <c r="AV87" s="2"/>
       <c r="AW87" s="2"/>
     </row>
-    <row r="88" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5282,7 +5281,7 @@
       <c r="AV88" s="2"/>
       <c r="AW88" s="2"/>
     </row>
-    <row r="89" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5333,7 +5332,7 @@
       <c r="AV89" s="2"/>
       <c r="AW89" s="2"/>
     </row>
-    <row r="90" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5384,7 +5383,7 @@
       <c r="AV90" s="2"/>
       <c r="AW90" s="2"/>
     </row>
-    <row r="91" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5435,7 +5434,7 @@
       <c r="AV91" s="2"/>
       <c r="AW91" s="2"/>
     </row>
-    <row r="92" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5486,7 +5485,7 @@
       <c r="AV92" s="2"/>
       <c r="AW92" s="2"/>
     </row>
-    <row r="93" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5537,7 +5536,7 @@
       <c r="AV93" s="2"/>
       <c r="AW93" s="2"/>
     </row>
-    <row r="94" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5588,7 +5587,7 @@
       <c r="AV94" s="2"/>
       <c r="AW94" s="2"/>
     </row>
-    <row r="95" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5639,7 +5638,7 @@
       <c r="AV95" s="2"/>
       <c r="AW95" s="2"/>
     </row>
-    <row r="96" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5690,7 +5689,7 @@
       <c r="AV96" s="2"/>
       <c r="AW96" s="2"/>
     </row>
-    <row r="97" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5741,7 +5740,7 @@
       <c r="AV97" s="2"/>
       <c r="AW97" s="2"/>
     </row>
-    <row r="98" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5792,7 +5791,7 @@
       <c r="AV98" s="2"/>
       <c r="AW98" s="2"/>
     </row>
-    <row r="99" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5843,7 +5842,7 @@
       <c r="AV99" s="2"/>
       <c r="AW99" s="2"/>
     </row>
-    <row r="100" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5894,7 +5893,7 @@
       <c r="AV100" s="2"/>
       <c r="AW100" s="2"/>
     </row>
-    <row r="101" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5945,7 +5944,7 @@
       <c r="AV101" s="2"/>
       <c r="AW101" s="2"/>
     </row>
-    <row r="102" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5996,7 +5995,7 @@
       <c r="AV102" s="2"/>
       <c r="AW102" s="2"/>
     </row>
-    <row r="103" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6047,7 +6046,7 @@
       <c r="AV103" s="2"/>
       <c r="AW103" s="2"/>
     </row>
-    <row r="104" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6098,7 +6097,7 @@
       <c r="AV104" s="2"/>
       <c r="AW104" s="2"/>
     </row>
-    <row r="105" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6149,7 +6148,7 @@
       <c r="AV105" s="2"/>
       <c r="AW105" s="2"/>
     </row>
-    <row r="106" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6200,7 +6199,7 @@
       <c r="AV106" s="2"/>
       <c r="AW106" s="2"/>
     </row>
-    <row r="107" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6251,7 +6250,7 @@
       <c r="AV107" s="2"/>
       <c r="AW107" s="2"/>
     </row>
-    <row r="108" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6302,7 +6301,7 @@
       <c r="AV108" s="2"/>
       <c r="AW108" s="2"/>
     </row>
-    <row r="109" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6353,7 +6352,7 @@
       <c r="AV109" s="2"/>
       <c r="AW109" s="2"/>
     </row>
-    <row r="110" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6404,7 +6403,7 @@
       <c r="AV110" s="2"/>
       <c r="AW110" s="2"/>
     </row>
-    <row r="111" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6455,7 +6454,7 @@
       <c r="AV111" s="2"/>
       <c r="AW111" s="2"/>
     </row>
-    <row r="112" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6506,7 +6505,7 @@
       <c r="AV112" s="2"/>
       <c r="AW112" s="2"/>
     </row>
-    <row r="113" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6557,7 +6556,7 @@
       <c r="AV113" s="2"/>
       <c r="AW113" s="2"/>
     </row>
-    <row r="114" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6608,7 +6607,7 @@
       <c r="AV114" s="2"/>
       <c r="AW114" s="2"/>
     </row>
-    <row r="115" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6659,7 +6658,7 @@
       <c r="AV115" s="2"/>
       <c r="AW115" s="2"/>
     </row>
-    <row r="116" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6710,7 +6709,7 @@
       <c r="AV116" s="2"/>
       <c r="AW116" s="2"/>
     </row>
-    <row r="117" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6761,7 +6760,7 @@
       <c r="AV117" s="2"/>
       <c r="AW117" s="2"/>
     </row>
-    <row r="118" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6812,7 +6811,7 @@
       <c r="AV118" s="2"/>
       <c r="AW118" s="2"/>
     </row>
-    <row r="119" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6863,7 +6862,7 @@
       <c r="AV119" s="2"/>
       <c r="AW119" s="2"/>
     </row>
-    <row r="120" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6914,7 +6913,7 @@
       <c r="AV120" s="2"/>
       <c r="AW120" s="2"/>
     </row>
-    <row r="121" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6965,7 +6964,7 @@
       <c r="AV121" s="2"/>
       <c r="AW121" s="2"/>
     </row>
-    <row r="122" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -7016,7 +7015,7 @@
       <c r="AV122" s="2"/>
       <c r="AW122" s="2"/>
     </row>
-    <row r="123" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -7067,7 +7066,7 @@
       <c r="AV123" s="2"/>
       <c r="AW123" s="2"/>
     </row>
-    <row r="124" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -7118,7 +7117,7 @@
       <c r="AV124" s="2"/>
       <c r="AW124" s="2"/>
     </row>
-    <row r="125" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7169,7 +7168,7 @@
       <c r="AV125" s="2"/>
       <c r="AW125" s="2"/>
     </row>
-    <row r="126" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -7220,7 +7219,7 @@
       <c r="AV126" s="2"/>
       <c r="AW126" s="2"/>
     </row>
-    <row r="127" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7271,7 +7270,7 @@
       <c r="AV127" s="2"/>
       <c r="AW127" s="2"/>
     </row>
-    <row r="128" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7322,7 +7321,7 @@
       <c r="AV128" s="2"/>
       <c r="AW128" s="2"/>
     </row>
-    <row r="129" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7373,7 +7372,7 @@
       <c r="AV129" s="2"/>
       <c r="AW129" s="2"/>
     </row>
-    <row r="130" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7424,7 +7423,7 @@
       <c r="AV130" s="2"/>
       <c r="AW130" s="2"/>
     </row>
-    <row r="131" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7475,7 +7474,7 @@
       <c r="AV131" s="2"/>
       <c r="AW131" s="2"/>
     </row>
-    <row r="132" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7526,7 +7525,7 @@
       <c r="AV132" s="2"/>
       <c r="AW132" s="2"/>
     </row>
-    <row r="133" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7577,7 +7576,7 @@
       <c r="AV133" s="2"/>
       <c r="AW133" s="2"/>
     </row>
-    <row r="134" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7628,7 +7627,7 @@
       <c r="AV134" s="2"/>
       <c r="AW134" s="2"/>
     </row>
-    <row r="135" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7679,7 +7678,7 @@
       <c r="AV135" s="2"/>
       <c r="AW135" s="2"/>
     </row>
-    <row r="136" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7730,7 +7729,7 @@
       <c r="AV136" s="2"/>
       <c r="AW136" s="2"/>
     </row>
-    <row r="137" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7781,7 +7780,7 @@
       <c r="AV137" s="2"/>
       <c r="AW137" s="2"/>
     </row>
-    <row r="138" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7832,7 +7831,7 @@
       <c r="AV138" s="2"/>
       <c r="AW138" s="2"/>
     </row>
-    <row r="139" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -7883,7 +7882,7 @@
       <c r="AV139" s="2"/>
       <c r="AW139" s="2"/>
     </row>
-    <row r="140" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -7934,7 +7933,7 @@
       <c r="AV140" s="2"/>
       <c r="AW140" s="2"/>
     </row>
-    <row r="141" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -7985,7 +7984,7 @@
       <c r="AV141" s="2"/>
       <c r="AW141" s="2"/>
     </row>
-    <row r="142" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -8036,7 +8035,7 @@
       <c r="AV142" s="2"/>
       <c r="AW142" s="2"/>
     </row>
-    <row r="143" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8087,7 +8086,7 @@
       <c r="AV143" s="2"/>
       <c r="AW143" s="2"/>
     </row>
-    <row r="144" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -8138,7 +8137,7 @@
       <c r="AV144" s="2"/>
       <c r="AW144" s="2"/>
     </row>
-    <row r="145" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8189,7 +8188,7 @@
       <c r="AV145" s="2"/>
       <c r="AW145" s="2"/>
     </row>
-    <row r="146" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8240,7 +8239,7 @@
       <c r="AV146" s="2"/>
       <c r="AW146" s="2"/>
     </row>
-    <row r="147" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -8291,7 +8290,7 @@
       <c r="AV147" s="2"/>
       <c r="AW147" s="2"/>
     </row>
-    <row r="148" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -8342,7 +8341,7 @@
       <c r="AV148" s="2"/>
       <c r="AW148" s="2"/>
     </row>
-    <row r="149" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -8393,7 +8392,7 @@
       <c r="AV149" s="2"/>
       <c r="AW149" s="2"/>
     </row>
-    <row r="150" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -8444,7 +8443,7 @@
       <c r="AV150" s="2"/>
       <c r="AW150" s="2"/>
     </row>
-    <row r="151" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -8495,7 +8494,7 @@
       <c r="AV151" s="2"/>
       <c r="AW151" s="2"/>
     </row>
-    <row r="152" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -8546,7 +8545,7 @@
       <c r="AV152" s="2"/>
       <c r="AW152" s="2"/>
     </row>
-    <row r="153" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8597,7 +8596,7 @@
       <c r="AV153" s="2"/>
       <c r="AW153" s="2"/>
     </row>
-    <row r="154" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8648,7 +8647,7 @@
       <c r="AV154" s="2"/>
       <c r="AW154" s="2"/>
     </row>
-    <row r="155" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -8699,7 +8698,7 @@
       <c r="AV155" s="2"/>
       <c r="AW155" s="2"/>
     </row>
-    <row r="156" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -8750,7 +8749,7 @@
       <c r="AV156" s="2"/>
       <c r="AW156" s="2"/>
     </row>
-    <row r="157" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -8801,7 +8800,7 @@
       <c r="AV157" s="2"/>
       <c r="AW157" s="2"/>
     </row>
-    <row r="158" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -8852,7 +8851,7 @@
       <c r="AV158" s="2"/>
       <c r="AW158" s="2"/>
     </row>
-    <row r="159" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -8903,7 +8902,7 @@
       <c r="AV159" s="2"/>
       <c r="AW159" s="2"/>
     </row>
-    <row r="160" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -8954,7 +8953,7 @@
       <c r="AV160" s="2"/>
       <c r="AW160" s="2"/>
     </row>
-    <row r="161" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -9005,7 +9004,7 @@
       <c r="AV161" s="2"/>
       <c r="AW161" s="2"/>
     </row>
-    <row r="162" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -9056,7 +9055,7 @@
       <c r="AV162" s="2"/>
       <c r="AW162" s="2"/>
     </row>
-    <row r="163" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -9107,7 +9106,7 @@
       <c r="AV163" s="2"/>
       <c r="AW163" s="2"/>
     </row>
-    <row r="164" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -9158,7 +9157,7 @@
       <c r="AV164" s="2"/>
       <c r="AW164" s="2"/>
     </row>
-    <row r="165" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -9209,7 +9208,7 @@
       <c r="AV165" s="2"/>
       <c r="AW165" s="2"/>
     </row>
-    <row r="166" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -9260,7 +9259,7 @@
       <c r="AV166" s="2"/>
       <c r="AW166" s="2"/>
     </row>
-    <row r="167" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -9311,7 +9310,7 @@
       <c r="AV167" s="2"/>
       <c r="AW167" s="2"/>
     </row>
-    <row r="168" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -9362,7 +9361,7 @@
       <c r="AV168" s="2"/>
       <c r="AW168" s="2"/>
     </row>
-    <row r="169" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -9413,7 +9412,7 @@
       <c r="AV169" s="2"/>
       <c r="AW169" s="2"/>
     </row>
-    <row r="170" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -9464,7 +9463,7 @@
       <c r="AV170" s="2"/>
       <c r="AW170" s="2"/>
     </row>
-    <row r="171" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -9515,7 +9514,7 @@
       <c r="AV171" s="2"/>
       <c r="AW171" s="2"/>
     </row>
-    <row r="172" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -9566,7 +9565,7 @@
       <c r="AV172" s="2"/>
       <c r="AW172" s="2"/>
     </row>
-    <row r="173" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -9617,7 +9616,7 @@
       <c r="AV173" s="2"/>
       <c r="AW173" s="2"/>
     </row>
-    <row r="174" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -9668,7 +9667,7 @@
       <c r="AV174" s="2"/>
       <c r="AW174" s="2"/>
     </row>
-    <row r="175" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -9719,7 +9718,7 @@
       <c r="AV175" s="2"/>
       <c r="AW175" s="2"/>
     </row>
-    <row r="176" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -9770,7 +9769,7 @@
       <c r="AV176" s="2"/>
       <c r="AW176" s="2"/>
     </row>
-    <row r="177" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -9821,7 +9820,7 @@
       <c r="AV177" s="2"/>
       <c r="AW177" s="2"/>
     </row>
-    <row r="178" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -9872,7 +9871,7 @@
       <c r="AV178" s="2"/>
       <c r="AW178" s="2"/>
     </row>
-    <row r="179" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -9923,7 +9922,7 @@
       <c r="AV179" s="2"/>
       <c r="AW179" s="2"/>
     </row>
-    <row r="180" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -9974,7 +9973,7 @@
       <c r="AV180" s="2"/>
       <c r="AW180" s="2"/>
     </row>
-    <row r="181" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -10025,7 +10024,7 @@
       <c r="AV181" s="2"/>
       <c r="AW181" s="2"/>
     </row>
-    <row r="182" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -10076,7 +10075,7 @@
       <c r="AV182" s="2"/>
       <c r="AW182" s="2"/>
     </row>
-    <row r="183" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -10127,7 +10126,7 @@
       <c r="AV183" s="2"/>
       <c r="AW183" s="2"/>
     </row>
-    <row r="184" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -10178,7 +10177,7 @@
       <c r="AV184" s="2"/>
       <c r="AW184" s="2"/>
     </row>
-    <row r="185" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -10229,7 +10228,7 @@
       <c r="AV185" s="2"/>
       <c r="AW185" s="2"/>
     </row>
-    <row r="186" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -10280,7 +10279,7 @@
       <c r="AV186" s="2"/>
       <c r="AW186" s="2"/>
     </row>
-    <row r="187" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -10331,7 +10330,7 @@
       <c r="AV187" s="2"/>
       <c r="AW187" s="2"/>
     </row>
-    <row r="188" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -10382,7 +10381,7 @@
       <c r="AV188" s="2"/>
       <c r="AW188" s="2"/>
     </row>
-    <row r="189" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -10433,7 +10432,7 @@
       <c r="AV189" s="2"/>
       <c r="AW189" s="2"/>
     </row>
-    <row r="190" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -10484,7 +10483,7 @@
       <c r="AV190" s="2"/>
       <c r="AW190" s="2"/>
     </row>
-    <row r="191" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -10535,7 +10534,7 @@
       <c r="AV191" s="2"/>
       <c r="AW191" s="2"/>
     </row>
-    <row r="192" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -10586,7 +10585,7 @@
       <c r="AV192" s="2"/>
       <c r="AW192" s="2"/>
     </row>
-    <row r="193" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -10637,7 +10636,7 @@
       <c r="AV193" s="2"/>
       <c r="AW193" s="2"/>
     </row>
-    <row r="194" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -10688,7 +10687,7 @@
       <c r="AV194" s="2"/>
       <c r="AW194" s="2"/>
     </row>
-    <row r="195" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -10739,7 +10738,7 @@
       <c r="AV195" s="2"/>
       <c r="AW195" s="2"/>
     </row>
-    <row r="196" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -10790,7 +10789,7 @@
       <c r="AV196" s="2"/>
       <c r="AW196" s="2"/>
     </row>
-    <row r="197" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -10841,7 +10840,7 @@
       <c r="AV197" s="2"/>
       <c r="AW197" s="2"/>
     </row>
-    <row r="198" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -10892,7 +10891,7 @@
       <c r="AV198" s="2"/>
       <c r="AW198" s="2"/>
     </row>
-    <row r="199" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -10943,7 +10942,7 @@
       <c r="AV199" s="2"/>
       <c r="AW199" s="2"/>
     </row>
-    <row r="200" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -10994,7 +10993,7 @@
       <c r="AV200" s="2"/>
       <c r="AW200" s="2"/>
     </row>
-    <row r="201" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -11045,7 +11044,7 @@
       <c r="AV201" s="2"/>
       <c r="AW201" s="2"/>
     </row>
-    <row r="202" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -11096,7 +11095,7 @@
       <c r="AV202" s="2"/>
       <c r="AW202" s="2"/>
     </row>
-    <row r="203" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -11147,7 +11146,7 @@
       <c r="AV203" s="2"/>
       <c r="AW203" s="2"/>
     </row>
-    <row r="204" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -11198,7 +11197,7 @@
       <c r="AV204" s="2"/>
       <c r="AW204" s="2"/>
     </row>
-    <row r="205" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -11249,7 +11248,7 @@
       <c r="AV205" s="2"/>
       <c r="AW205" s="2"/>
     </row>
-    <row r="206" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -11300,7 +11299,7 @@
       <c r="AV206" s="2"/>
       <c r="AW206" s="2"/>
     </row>
-    <row r="207" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -11351,7 +11350,7 @@
       <c r="AV207" s="2"/>
       <c r="AW207" s="2"/>
     </row>
-    <row r="208" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -11402,7 +11401,7 @@
       <c r="AV208" s="2"/>
       <c r="AW208" s="2"/>
     </row>
-    <row r="209" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -11453,7 +11452,7 @@
       <c r="AV209" s="2"/>
       <c r="AW209" s="2"/>
     </row>
-    <row r="210" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -11504,7 +11503,7 @@
       <c r="AV210" s="2"/>
       <c r="AW210" s="2"/>
     </row>
-    <row r="211" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -11555,7 +11554,7 @@
       <c r="AV211" s="2"/>
       <c r="AW211" s="2"/>
     </row>
-    <row r="212" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -11606,7 +11605,7 @@
       <c r="AV212" s="2"/>
       <c r="AW212" s="2"/>
     </row>
-    <row r="213" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -11657,7 +11656,7 @@
       <c r="AV213" s="2"/>
       <c r="AW213" s="2"/>
     </row>
-    <row r="214" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -11708,7 +11707,7 @@
       <c r="AV214" s="2"/>
       <c r="AW214" s="2"/>
     </row>
-    <row r="215" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -11759,7 +11758,7 @@
       <c r="AV215" s="2"/>
       <c r="AW215" s="2"/>
     </row>
-    <row r="216" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -11810,7 +11809,7 @@
       <c r="AV216" s="2"/>
       <c r="AW216" s="2"/>
     </row>
-    <row r="217" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -11861,7 +11860,7 @@
       <c r="AV217" s="2"/>
       <c r="AW217" s="2"/>
     </row>
-    <row r="218" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -11912,7 +11911,7 @@
       <c r="AV218" s="2"/>
       <c r="AW218" s="2"/>
     </row>
-    <row r="219" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -11963,7 +11962,7 @@
       <c r="AV219" s="2"/>
       <c r="AW219" s="2"/>
     </row>
-    <row r="220" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -12014,7 +12013,7 @@
       <c r="AV220" s="2"/>
       <c r="AW220" s="2"/>
     </row>
-    <row r="221" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -12065,7 +12064,7 @@
       <c r="AV221" s="2"/>
       <c r="AW221" s="2"/>
     </row>
-    <row r="222" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -12116,7 +12115,7 @@
       <c r="AV222" s="2"/>
       <c r="AW222" s="2"/>
     </row>
-    <row r="223" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -12167,7 +12166,7 @@
       <c r="AV223" s="2"/>
       <c r="AW223" s="2"/>
     </row>
-    <row r="224" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -12218,7 +12217,7 @@
       <c r="AV224" s="2"/>
       <c r="AW224" s="2"/>
     </row>
-    <row r="225" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -12269,7 +12268,7 @@
       <c r="AV225" s="2"/>
       <c r="AW225" s="2"/>
     </row>
-    <row r="226" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -12320,7 +12319,7 @@
       <c r="AV226" s="2"/>
       <c r="AW226" s="2"/>
     </row>
-    <row r="227" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -12371,7 +12370,7 @@
       <c r="AV227" s="2"/>
       <c r="AW227" s="2"/>
     </row>
-    <row r="228" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -12422,7 +12421,7 @@
       <c r="AV228" s="2"/>
       <c r="AW228" s="2"/>
     </row>
-    <row r="229" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -12473,7 +12472,7 @@
       <c r="AV229" s="2"/>
       <c r="AW229" s="2"/>
     </row>
-    <row r="230" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -12524,7 +12523,7 @@
       <c r="AV230" s="2"/>
       <c r="AW230" s="2"/>
     </row>
-    <row r="231" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -12575,7 +12574,7 @@
       <c r="AV231" s="2"/>
       <c r="AW231" s="2"/>
     </row>
-    <row r="232" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -12626,7 +12625,7 @@
       <c r="AV232" s="2"/>
       <c r="AW232" s="2"/>
     </row>
-    <row r="233" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -12677,7 +12676,7 @@
       <c r="AV233" s="2"/>
       <c r="AW233" s="2"/>
     </row>
-    <row r="234" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -12728,7 +12727,7 @@
       <c r="AV234" s="2"/>
       <c r="AW234" s="2"/>
     </row>
-    <row r="235" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -12779,7 +12778,7 @@
       <c r="AV235" s="2"/>
       <c r="AW235" s="2"/>
     </row>
-    <row r="236" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -12830,7 +12829,7 @@
       <c r="AV236" s="2"/>
       <c r="AW236" s="2"/>
     </row>
-    <row r="237" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -12881,7 +12880,7 @@
       <c r="AV237" s="2"/>
       <c r="AW237" s="2"/>
     </row>
-    <row r="238" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -12932,7 +12931,7 @@
       <c r="AV238" s="2"/>
       <c r="AW238" s="2"/>
     </row>
-    <row r="239" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -12983,7 +12982,7 @@
       <c r="AV239" s="2"/>
       <c r="AW239" s="2"/>
     </row>
-    <row r="240" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -13034,7 +13033,7 @@
       <c r="AV240" s="2"/>
       <c r="AW240" s="2"/>
     </row>
-    <row r="241" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -13085,7 +13084,7 @@
       <c r="AV241" s="2"/>
       <c r="AW241" s="2"/>
     </row>
-    <row r="242" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -13136,7 +13135,7 @@
       <c r="AV242" s="2"/>
       <c r="AW242" s="2"/>
     </row>
-    <row r="243" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -13187,7 +13186,7 @@
       <c r="AV243" s="2"/>
       <c r="AW243" s="2"/>
     </row>
-    <row r="244" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -13238,7 +13237,7 @@
       <c r="AV244" s="2"/>
       <c r="AW244" s="2"/>
     </row>
-    <row r="245" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -13289,7 +13288,7 @@
       <c r="AV245" s="2"/>
       <c r="AW245" s="2"/>
     </row>
-    <row r="246" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -13340,7 +13339,7 @@
       <c r="AV246" s="2"/>
       <c r="AW246" s="2"/>
     </row>
-    <row r="247" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -13391,7 +13390,7 @@
       <c r="AV247" s="2"/>
       <c r="AW247" s="2"/>
     </row>
-    <row r="248" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -13442,7 +13441,7 @@
       <c r="AV248" s="2"/>
       <c r="AW248" s="2"/>
     </row>
-    <row r="249" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -13493,7 +13492,7 @@
       <c r="AV249" s="2"/>
       <c r="AW249" s="2"/>
     </row>
-    <row r="250" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -13544,7 +13543,7 @@
       <c r="AV250" s="2"/>
       <c r="AW250" s="2"/>
     </row>
-    <row r="251" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -13595,7 +13594,7 @@
       <c r="AV251" s="2"/>
       <c r="AW251" s="2"/>
     </row>
-    <row r="252" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -13646,7 +13645,7 @@
       <c r="AV252" s="2"/>
       <c r="AW252" s="2"/>
     </row>
-    <row r="253" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -13697,7 +13696,7 @@
       <c r="AV253" s="2"/>
       <c r="AW253" s="2"/>
     </row>
-    <row r="254" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -13748,7 +13747,7 @@
       <c r="AV254" s="2"/>
       <c r="AW254" s="2"/>
     </row>
-    <row r="255" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -13799,7 +13798,7 @@
       <c r="AV255" s="2"/>
       <c r="AW255" s="2"/>
     </row>
-    <row r="256" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -13850,7 +13849,7 @@
       <c r="AV256" s="2"/>
       <c r="AW256" s="2"/>
     </row>
-    <row r="257" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -13901,7 +13900,7 @@
       <c r="AV257" s="2"/>
       <c r="AW257" s="2"/>
     </row>
-    <row r="258" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -13952,7 +13951,7 @@
       <c r="AV258" s="2"/>
       <c r="AW258" s="2"/>
     </row>
-    <row r="259" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -14003,7 +14002,7 @@
       <c r="AV259" s="2"/>
       <c r="AW259" s="2"/>
     </row>
-    <row r="260" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -14054,7 +14053,7 @@
       <c r="AV260" s="2"/>
       <c r="AW260" s="2"/>
     </row>
-    <row r="261" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -14105,7 +14104,7 @@
       <c r="AV261" s="2"/>
       <c r="AW261" s="2"/>
     </row>
-    <row r="262" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -14156,7 +14155,7 @@
       <c r="AV262" s="2"/>
       <c r="AW262" s="2"/>
     </row>
-    <row r="263" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -14207,7 +14206,7 @@
       <c r="AV263" s="2"/>
       <c r="AW263" s="2"/>
     </row>
-    <row r="264" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -14258,7 +14257,7 @@
       <c r="AV264" s="2"/>
       <c r="AW264" s="2"/>
     </row>
-    <row r="265" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -14309,7 +14308,7 @@
       <c r="AV265" s="2"/>
       <c r="AW265" s="2"/>
     </row>
-    <row r="266" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -14360,7 +14359,7 @@
       <c r="AV266" s="2"/>
       <c r="AW266" s="2"/>
     </row>
-    <row r="267" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -14411,7 +14410,7 @@
       <c r="AV267" s="2"/>
       <c r="AW267" s="2"/>
     </row>
-    <row r="268" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -14462,7 +14461,7 @@
       <c r="AV268" s="2"/>
       <c r="AW268" s="2"/>
     </row>
-    <row r="269" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -14513,7 +14512,7 @@
       <c r="AV269" s="2"/>
       <c r="AW269" s="2"/>
     </row>
-    <row r="270" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -14564,7 +14563,7 @@
       <c r="AV270" s="2"/>
       <c r="AW270" s="2"/>
     </row>
-    <row r="271" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -14615,7 +14614,7 @@
       <c r="AV271" s="2"/>
       <c r="AW271" s="2"/>
     </row>
-    <row r="272" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -14666,7 +14665,7 @@
       <c r="AV272" s="2"/>
       <c r="AW272" s="2"/>
     </row>
-    <row r="273" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -14717,7 +14716,7 @@
       <c r="AV273" s="2"/>
       <c r="AW273" s="2"/>
     </row>
-    <row r="274" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -14768,7 +14767,7 @@
       <c r="AV274" s="2"/>
       <c r="AW274" s="2"/>
     </row>
-    <row r="275" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -14819,7 +14818,7 @@
       <c r="AV275" s="2"/>
       <c r="AW275" s="2"/>
     </row>
-    <row r="276" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -14870,7 +14869,7 @@
       <c r="AV276" s="2"/>
       <c r="AW276" s="2"/>
     </row>
-    <row r="277" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -14921,7 +14920,7 @@
       <c r="AV277" s="2"/>
       <c r="AW277" s="2"/>
     </row>
-    <row r="278" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -14972,7 +14971,7 @@
       <c r="AV278" s="2"/>
       <c r="AW278" s="2"/>
     </row>
-    <row r="279" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -15023,7 +15022,7 @@
       <c r="AV279" s="2"/>
       <c r="AW279" s="2"/>
     </row>
-    <row r="280" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -15074,7 +15073,7 @@
       <c r="AV280" s="2"/>
       <c r="AW280" s="2"/>
     </row>
-    <row r="281" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -15125,7 +15124,7 @@
       <c r="AV281" s="2"/>
       <c r="AW281" s="2"/>
     </row>
-    <row r="282" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -15176,7 +15175,7 @@
       <c r="AV282" s="2"/>
       <c r="AW282" s="2"/>
     </row>
-    <row r="283" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -15227,7 +15226,7 @@
       <c r="AV283" s="2"/>
       <c r="AW283" s="2"/>
     </row>
-    <row r="284" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -15278,7 +15277,7 @@
       <c r="AV284" s="2"/>
       <c r="AW284" s="2"/>
     </row>
-    <row r="285" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -15329,7 +15328,7 @@
       <c r="AV285" s="2"/>
       <c r="AW285" s="2"/>
     </row>
-    <row r="286" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -15380,7 +15379,7 @@
       <c r="AV286" s="2"/>
       <c r="AW286" s="2"/>
     </row>
-    <row r="287" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -15431,7 +15430,7 @@
       <c r="AV287" s="2"/>
       <c r="AW287" s="2"/>
     </row>
-    <row r="288" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -15482,7 +15481,7 @@
       <c r="AV288" s="2"/>
       <c r="AW288" s="2"/>
     </row>
-    <row r="289" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -15533,7 +15532,7 @@
       <c r="AV289" s="2"/>
       <c r="AW289" s="2"/>
     </row>
-    <row r="290" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -15584,7 +15583,7 @@
       <c r="AV290" s="2"/>
       <c r="AW290" s="2"/>
     </row>
-    <row r="291" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -15635,7 +15634,7 @@
       <c r="AV291" s="2"/>
       <c r="AW291" s="2"/>
     </row>
-    <row r="292" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -15686,7 +15685,7 @@
       <c r="AV292" s="2"/>
       <c r="AW292" s="2"/>
     </row>
-    <row r="293" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -15737,7 +15736,7 @@
       <c r="AV293" s="2"/>
       <c r="AW293" s="2"/>
     </row>
-    <row r="294" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -15788,7 +15787,7 @@
       <c r="AV294" s="2"/>
       <c r="AW294" s="2"/>
     </row>
-    <row r="295" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -15839,7 +15838,7 @@
       <c r="AV295" s="2"/>
       <c r="AW295" s="2"/>
     </row>
-    <row r="296" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -15890,7 +15889,7 @@
       <c r="AV296" s="2"/>
       <c r="AW296" s="2"/>
     </row>
-    <row r="297" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -15941,7 +15940,7 @@
       <c r="AV297" s="2"/>
       <c r="AW297" s="2"/>
     </row>
-    <row r="298" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -15992,7 +15991,7 @@
       <c r="AV298" s="2"/>
       <c r="AW298" s="2"/>
     </row>
-    <row r="299" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -16043,7 +16042,7 @@
       <c r="AV299" s="2"/>
       <c r="AW299" s="2"/>
     </row>
-    <row r="300" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -16094,7 +16093,7 @@
       <c r="AV300" s="2"/>
       <c r="AW300" s="2"/>
     </row>
-    <row r="301" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -16145,7 +16144,7 @@
       <c r="AV301" s="2"/>
       <c r="AW301" s="2"/>
     </row>
-    <row r="302" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -16196,7 +16195,7 @@
       <c r="AV302" s="2"/>
       <c r="AW302" s="2"/>
     </row>
-    <row r="303" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -16247,7 +16246,7 @@
       <c r="AV303" s="2"/>
       <c r="AW303" s="2"/>
     </row>
-    <row r="304" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -16298,7 +16297,7 @@
       <c r="AV304" s="2"/>
       <c r="AW304" s="2"/>
     </row>
-    <row r="305" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -16349,7 +16348,7 @@
       <c r="AV305" s="2"/>
       <c r="AW305" s="2"/>
     </row>
-    <row r="306" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -16400,7 +16399,7 @@
       <c r="AV306" s="2"/>
       <c r="AW306" s="2"/>
     </row>
-    <row r="307" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -16451,7 +16450,7 @@
       <c r="AV307" s="2"/>
       <c r="AW307" s="2"/>
     </row>
-    <row r="308" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -16502,7 +16501,7 @@
       <c r="AV308" s="2"/>
       <c r="AW308" s="2"/>
     </row>
-    <row r="309" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -16553,7 +16552,7 @@
       <c r="AV309" s="2"/>
       <c r="AW309" s="2"/>
     </row>
-    <row r="310" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -16604,7 +16603,7 @@
       <c r="AV310" s="2"/>
       <c r="AW310" s="2"/>
     </row>
-    <row r="311" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -16655,7 +16654,7 @@
       <c r="AV311" s="2"/>
       <c r="AW311" s="2"/>
     </row>
-    <row r="312" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -16706,7 +16705,7 @@
       <c r="AV312" s="2"/>
       <c r="AW312" s="2"/>
     </row>
-    <row r="313" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -16757,7 +16756,7 @@
       <c r="AV313" s="2"/>
       <c r="AW313" s="2"/>
     </row>
-    <row r="314" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -16808,7 +16807,7 @@
       <c r="AV314" s="2"/>
       <c r="AW314" s="2"/>
     </row>
-    <row r="315" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -16859,7 +16858,7 @@
       <c r="AV315" s="2"/>
       <c r="AW315" s="2"/>
     </row>
-    <row r="316" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -16910,7 +16909,7 @@
       <c r="AV316" s="2"/>
       <c r="AW316" s="2"/>
     </row>
-    <row r="317" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -16961,7 +16960,7 @@
       <c r="AV317" s="2"/>
       <c r="AW317" s="2"/>
     </row>
-    <row r="318" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -17012,7 +17011,7 @@
       <c r="AV318" s="2"/>
       <c r="AW318" s="2"/>
     </row>
-    <row r="319" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -17063,7 +17062,7 @@
       <c r="AV319" s="2"/>
       <c r="AW319" s="2"/>
     </row>
-    <row r="320" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -17114,7 +17113,7 @@
       <c r="AV320" s="2"/>
       <c r="AW320" s="2"/>
     </row>
-    <row r="321" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -17165,7 +17164,7 @@
       <c r="AV321" s="2"/>
       <c r="AW321" s="2"/>
     </row>
-    <row r="322" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -17216,7 +17215,7 @@
       <c r="AV322" s="2"/>
       <c r="AW322" s="2"/>
     </row>
-    <row r="323" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -17267,7 +17266,7 @@
       <c r="AV323" s="2"/>
       <c r="AW323" s="2"/>
     </row>
-    <row r="324" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -17318,7 +17317,7 @@
       <c r="AV324" s="2"/>
       <c r="AW324" s="2"/>
     </row>
-    <row r="325" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -17369,7 +17368,7 @@
       <c r="AV325" s="2"/>
       <c r="AW325" s="2"/>
     </row>
-    <row r="326" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -17420,7 +17419,7 @@
       <c r="AV326" s="2"/>
       <c r="AW326" s="2"/>
     </row>
-    <row r="327" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -17471,7 +17470,7 @@
       <c r="AV327" s="2"/>
       <c r="AW327" s="2"/>
     </row>
-    <row r="328" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -17522,7 +17521,7 @@
       <c r="AV328" s="2"/>
       <c r="AW328" s="2"/>
     </row>
-    <row r="329" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -17573,7 +17572,7 @@
       <c r="AV329" s="2"/>
       <c r="AW329" s="2"/>
     </row>
-    <row r="330" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -17624,7 +17623,7 @@
       <c r="AV330" s="2"/>
       <c r="AW330" s="2"/>
     </row>
-    <row r="331" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -17675,7 +17674,7 @@
       <c r="AV331" s="2"/>
       <c r="AW331" s="2"/>
     </row>
-    <row r="332" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -17726,7 +17725,7 @@
       <c r="AV332" s="2"/>
       <c r="AW332" s="2"/>
     </row>
-    <row r="333" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -17777,7 +17776,7 @@
       <c r="AV333" s="2"/>
       <c r="AW333" s="2"/>
     </row>
-    <row r="334" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -17828,7 +17827,7 @@
       <c r="AV334" s="2"/>
       <c r="AW334" s="2"/>
     </row>
-    <row r="335" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -17879,7 +17878,7 @@
       <c r="AV335" s="2"/>
       <c r="AW335" s="2"/>
     </row>
-    <row r="336" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -17930,7 +17929,7 @@
       <c r="AV336" s="2"/>
       <c r="AW336" s="2"/>
     </row>
-    <row r="337" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -17981,7 +17980,7 @@
       <c r="AV337" s="2"/>
       <c r="AW337" s="2"/>
     </row>
-    <row r="338" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -18032,7 +18031,7 @@
       <c r="AV338" s="2"/>
       <c r="AW338" s="2"/>
     </row>
-    <row r="339" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -18083,7 +18082,7 @@
       <c r="AV339" s="2"/>
       <c r="AW339" s="2"/>
     </row>
-    <row r="340" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -18134,7 +18133,7 @@
       <c r="AV340" s="2"/>
       <c r="AW340" s="2"/>
     </row>
-    <row r="341" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -18185,7 +18184,7 @@
       <c r="AV341" s="2"/>
       <c r="AW341" s="2"/>
     </row>
-    <row r="342" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -18236,7 +18235,7 @@
       <c r="AV342" s="2"/>
       <c r="AW342" s="2"/>
     </row>
-    <row r="343" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -18287,7 +18286,7 @@
       <c r="AV343" s="2"/>
       <c r="AW343" s="2"/>
     </row>
-    <row r="344" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -18338,7 +18337,7 @@
       <c r="AV344" s="2"/>
       <c r="AW344" s="2"/>
     </row>
-    <row r="345" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -18389,7 +18388,7 @@
       <c r="AV345" s="2"/>
       <c r="AW345" s="2"/>
     </row>
-    <row r="346" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -18440,7 +18439,7 @@
       <c r="AV346" s="2"/>
       <c r="AW346" s="2"/>
     </row>
-    <row r="347" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -18491,7 +18490,7 @@
       <c r="AV347" s="2"/>
       <c r="AW347" s="2"/>
     </row>
-    <row r="348" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -18542,7 +18541,7 @@
       <c r="AV348" s="2"/>
       <c r="AW348" s="2"/>
     </row>
-    <row r="349" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -18593,7 +18592,7 @@
       <c r="AV349" s="2"/>
       <c r="AW349" s="2"/>
     </row>
-    <row r="350" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -18644,7 +18643,7 @@
       <c r="AV350" s="2"/>
       <c r="AW350" s="2"/>
     </row>
-    <row r="351" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -18695,7 +18694,7 @@
       <c r="AV351" s="2"/>
       <c r="AW351" s="2"/>
     </row>
-    <row r="352" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -18746,7 +18745,7 @@
       <c r="AV352" s="2"/>
       <c r="AW352" s="2"/>
     </row>
-    <row r="353" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -18797,7 +18796,7 @@
       <c r="AV353" s="2"/>
       <c r="AW353" s="2"/>
     </row>
-    <row r="354" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -18848,7 +18847,7 @@
       <c r="AV354" s="2"/>
       <c r="AW354" s="2"/>
     </row>
-    <row r="355" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -18899,7 +18898,7 @@
       <c r="AV355" s="2"/>
       <c r="AW355" s="2"/>
     </row>
-    <row r="356" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -18950,7 +18949,7 @@
       <c r="AV356" s="2"/>
       <c r="AW356" s="2"/>
     </row>
-    <row r="357" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -19001,7 +19000,7 @@
       <c r="AV357" s="2"/>
       <c r="AW357" s="2"/>
     </row>
-    <row r="358" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -19052,7 +19051,7 @@
       <c r="AV358" s="2"/>
       <c r="AW358" s="2"/>
     </row>
-    <row r="359" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -19103,7 +19102,7 @@
       <c r="AV359" s="2"/>
       <c r="AW359" s="2"/>
     </row>
-    <row r="360" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -19154,7 +19153,7 @@
       <c r="AV360" s="2"/>
       <c r="AW360" s="2"/>
     </row>
-    <row r="361" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -19205,7 +19204,7 @@
       <c r="AV361" s="2"/>
       <c r="AW361" s="2"/>
     </row>
-    <row r="362" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -19256,7 +19255,7 @@
       <c r="AV362" s="2"/>
       <c r="AW362" s="2"/>
     </row>
-    <row r="363" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -19307,7 +19306,7 @@
       <c r="AV363" s="2"/>
       <c r="AW363" s="2"/>
     </row>
-    <row r="364" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -19358,7 +19357,7 @@
       <c r="AV364" s="2"/>
       <c r="AW364" s="2"/>
     </row>
-    <row r="365" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -19409,7 +19408,7 @@
       <c r="AV365" s="2"/>
       <c r="AW365" s="2"/>
     </row>
-    <row r="366" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -19460,7 +19459,7 @@
       <c r="AV366" s="2"/>
       <c r="AW366" s="2"/>
     </row>
-    <row r="367" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -19511,7 +19510,7 @@
       <c r="AV367" s="2"/>
       <c r="AW367" s="2"/>
     </row>
-    <row r="368" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -19562,7 +19561,7 @@
       <c r="AV368" s="2"/>
       <c r="AW368" s="2"/>
     </row>
-    <row r="369" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -19613,7 +19612,7 @@
       <c r="AV369" s="2"/>
       <c r="AW369" s="2"/>
     </row>
-    <row r="370" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -19664,7 +19663,7 @@
       <c r="AV370" s="2"/>
       <c r="AW370" s="2"/>
     </row>
-    <row r="371" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -19715,7 +19714,7 @@
       <c r="AV371" s="2"/>
       <c r="AW371" s="2"/>
     </row>
-    <row r="372" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -19766,7 +19765,7 @@
       <c r="AV372" s="2"/>
       <c r="AW372" s="2"/>
     </row>
-    <row r="373" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -19817,7 +19816,7 @@
       <c r="AV373" s="2"/>
       <c r="AW373" s="2"/>
     </row>
-    <row r="374" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -19868,7 +19867,7 @@
       <c r="AV374" s="2"/>
       <c r="AW374" s="2"/>
     </row>
-    <row r="375" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -19919,7 +19918,7 @@
       <c r="AV375" s="2"/>
       <c r="AW375" s="2"/>
     </row>
-    <row r="376" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -19970,7 +19969,7 @@
       <c r="AV376" s="2"/>
       <c r="AW376" s="2"/>
     </row>
-    <row r="377" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -20021,7 +20020,7 @@
       <c r="AV377" s="2"/>
       <c r="AW377" s="2"/>
     </row>
-    <row r="378" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -20072,7 +20071,7 @@
       <c r="AV378" s="2"/>
       <c r="AW378" s="2"/>
     </row>
-    <row r="379" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -20123,7 +20122,7 @@
       <c r="AV379" s="2"/>
       <c r="AW379" s="2"/>
     </row>
-    <row r="380" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -20174,7 +20173,7 @@
       <c r="AV380" s="2"/>
       <c r="AW380" s="2"/>
     </row>
-    <row r="381" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -20225,7 +20224,7 @@
       <c r="AV381" s="2"/>
       <c r="AW381" s="2"/>
     </row>
-    <row r="382" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -20276,7 +20275,7 @@
       <c r="AV382" s="2"/>
       <c r="AW382" s="2"/>
     </row>
-    <row r="383" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -20327,7 +20326,7 @@
       <c r="AV383" s="2"/>
       <c r="AW383" s="2"/>
     </row>
-    <row r="384" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -20378,7 +20377,7 @@
       <c r="AV384" s="2"/>
       <c r="AW384" s="2"/>
     </row>
-    <row r="385" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -20429,7 +20428,7 @@
       <c r="AV385" s="2"/>
       <c r="AW385" s="2"/>
     </row>
-    <row r="386" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -20480,7 +20479,7 @@
       <c r="AV386" s="2"/>
       <c r="AW386" s="2"/>
     </row>
-    <row r="387" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -20531,7 +20530,7 @@
       <c r="AV387" s="2"/>
       <c r="AW387" s="2"/>
     </row>
-    <row r="388" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -20582,7 +20581,7 @@
       <c r="AV388" s="2"/>
       <c r="AW388" s="2"/>
     </row>
-    <row r="389" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -20633,7 +20632,7 @@
       <c r="AV389" s="2"/>
       <c r="AW389" s="2"/>
     </row>
-    <row r="390" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -20684,7 +20683,7 @@
       <c r="AV390" s="2"/>
       <c r="AW390" s="2"/>
     </row>
-    <row r="391" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -20735,7 +20734,7 @@
       <c r="AV391" s="2"/>
       <c r="AW391" s="2"/>
     </row>
-    <row r="392" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -20786,7 +20785,7 @@
       <c r="AV392" s="2"/>
       <c r="AW392" s="2"/>
     </row>
-    <row r="393" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -20837,7 +20836,7 @@
       <c r="AV393" s="2"/>
       <c r="AW393" s="2"/>
     </row>
-    <row r="394" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -20888,7 +20887,7 @@
       <c r="AV394" s="2"/>
       <c r="AW394" s="2"/>
     </row>
-    <row r="395" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -20939,7 +20938,7 @@
       <c r="AV395" s="2"/>
       <c r="AW395" s="2"/>
     </row>
-    <row r="396" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -20990,7 +20989,7 @@
       <c r="AV396" s="2"/>
       <c r="AW396" s="2"/>
     </row>
-    <row r="397" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -21041,7 +21040,7 @@
       <c r="AV397" s="2"/>
       <c r="AW397" s="2"/>
     </row>
-    <row r="398" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -21092,7 +21091,7 @@
       <c r="AV398" s="2"/>
       <c r="AW398" s="2"/>
     </row>
-    <row r="399" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -21143,7 +21142,7 @@
       <c r="AV399" s="2"/>
       <c r="AW399" s="2"/>
     </row>
-    <row r="400" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -21194,7 +21193,7 @@
       <c r="AV400" s="2"/>
       <c r="AW400" s="2"/>
     </row>
-    <row r="401" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -21245,7 +21244,7 @@
       <c r="AV401" s="2"/>
       <c r="AW401" s="2"/>
     </row>
-    <row r="402" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -21296,7 +21295,7 @@
       <c r="AV402" s="2"/>
       <c r="AW402" s="2"/>
     </row>
-    <row r="403" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -21347,7 +21346,7 @@
       <c r="AV403" s="2"/>
       <c r="AW403" s="2"/>
     </row>
-    <row r="404" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -21398,7 +21397,7 @@
       <c r="AV404" s="2"/>
       <c r="AW404" s="2"/>
     </row>
-    <row r="405" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -21449,7 +21448,7 @@
       <c r="AV405" s="2"/>
       <c r="AW405" s="2"/>
     </row>
-    <row r="406" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -21500,7 +21499,7 @@
       <c r="AV406" s="2"/>
       <c r="AW406" s="2"/>
     </row>
-    <row r="407" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -21551,7 +21550,7 @@
       <c r="AV407" s="2"/>
       <c r="AW407" s="2"/>
     </row>
-    <row r="408" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -21602,7 +21601,7 @@
       <c r="AV408" s="2"/>
       <c r="AW408" s="2"/>
     </row>
-    <row r="409" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -21653,7 +21652,7 @@
       <c r="AV409" s="2"/>
       <c r="AW409" s="2"/>
     </row>
-    <row r="410" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -21704,7 +21703,7 @@
       <c r="AV410" s="2"/>
       <c r="AW410" s="2"/>
     </row>
-    <row r="411" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -21755,7 +21754,7 @@
       <c r="AV411" s="2"/>
       <c r="AW411" s="2"/>
     </row>
-    <row r="412" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -21806,7 +21805,7 @@
       <c r="AV412" s="2"/>
       <c r="AW412" s="2"/>
     </row>
-    <row r="413" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -21857,7 +21856,7 @@
       <c r="AV413" s="2"/>
       <c r="AW413" s="2"/>
     </row>
-    <row r="414" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -21908,7 +21907,7 @@
       <c r="AV414" s="2"/>
       <c r="AW414" s="2"/>
     </row>
-    <row r="415" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -21959,7 +21958,7 @@
       <c r="AV415" s="2"/>
       <c r="AW415" s="2"/>
     </row>
-    <row r="416" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -22010,7 +22009,7 @@
       <c r="AV416" s="2"/>
       <c r="AW416" s="2"/>
     </row>
-    <row r="417" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -22061,7 +22060,7 @@
       <c r="AV417" s="2"/>
       <c r="AW417" s="2"/>
     </row>
-    <row r="418" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -22112,7 +22111,7 @@
       <c r="AV418" s="2"/>
       <c r="AW418" s="2"/>
     </row>
-    <row r="419" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -22163,7 +22162,7 @@
       <c r="AV419" s="2"/>
       <c r="AW419" s="2"/>
     </row>
-    <row r="420" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -22214,7 +22213,7 @@
       <c r="AV420" s="2"/>
       <c r="AW420" s="2"/>
     </row>
-    <row r="421" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -22265,7 +22264,7 @@
       <c r="AV421" s="2"/>
       <c r="AW421" s="2"/>
     </row>
-    <row r="422" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -22316,7 +22315,7 @@
       <c r="AV422" s="2"/>
       <c r="AW422" s="2"/>
     </row>
-    <row r="423" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -22367,7 +22366,7 @@
       <c r="AV423" s="2"/>
       <c r="AW423" s="2"/>
     </row>
-    <row r="424" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -22418,7 +22417,7 @@
       <c r="AV424" s="2"/>
       <c r="AW424" s="2"/>
     </row>
-    <row r="425" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -22469,7 +22468,7 @@
       <c r="AV425" s="2"/>
       <c r="AW425" s="2"/>
     </row>
-    <row r="426" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -22520,7 +22519,7 @@
       <c r="AV426" s="2"/>
       <c r="AW426" s="2"/>
     </row>
-    <row r="427" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -22571,7 +22570,7 @@
       <c r="AV427" s="2"/>
       <c r="AW427" s="2"/>
     </row>
-    <row r="428" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -22622,7 +22621,7 @@
       <c r="AV428" s="2"/>
       <c r="AW428" s="2"/>
     </row>
-    <row r="429" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -22673,7 +22672,7 @@
       <c r="AV429" s="2"/>
       <c r="AW429" s="2"/>
     </row>
-    <row r="430" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -22724,7 +22723,7 @@
       <c r="AV430" s="2"/>
       <c r="AW430" s="2"/>
     </row>
-    <row r="431" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -22775,7 +22774,7 @@
       <c r="AV431" s="2"/>
       <c r="AW431" s="2"/>
     </row>
-    <row r="432" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -22826,7 +22825,7 @@
       <c r="AV432" s="2"/>
       <c r="AW432" s="2"/>
     </row>
-    <row r="433" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -22877,7 +22876,7 @@
       <c r="AV433" s="2"/>
       <c r="AW433" s="2"/>
     </row>
-    <row r="434" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -22928,7 +22927,7 @@
       <c r="AV434" s="2"/>
       <c r="AW434" s="2"/>
     </row>
-    <row r="435" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -22979,7 +22978,7 @@
       <c r="AV435" s="2"/>
       <c r="AW435" s="2"/>
     </row>
-    <row r="436" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -23030,7 +23029,7 @@
       <c r="AV436" s="2"/>
       <c r="AW436" s="2"/>
     </row>
-    <row r="437" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -23081,7 +23080,7 @@
       <c r="AV437" s="2"/>
       <c r="AW437" s="2"/>
     </row>
-    <row r="438" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -23132,7 +23131,7 @@
       <c r="AV438" s="2"/>
       <c r="AW438" s="2"/>
     </row>
-    <row r="439" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -23183,7 +23182,7 @@
       <c r="AV439" s="2"/>
       <c r="AW439" s="2"/>
     </row>
-    <row r="440" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -23234,7 +23233,7 @@
       <c r="AV440" s="2"/>
       <c r="AW440" s="2"/>
     </row>
-    <row r="441" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -23285,7 +23284,7 @@
       <c r="AV441" s="2"/>
       <c r="AW441" s="2"/>
     </row>
-    <row r="442" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -23336,7 +23335,7 @@
       <c r="AV442" s="2"/>
       <c r="AW442" s="2"/>
     </row>
-    <row r="443" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -23387,7 +23386,7 @@
       <c r="AV443" s="2"/>
       <c r="AW443" s="2"/>
     </row>
-    <row r="444" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -23438,7 +23437,7 @@
       <c r="AV444" s="2"/>
       <c r="AW444" s="2"/>
     </row>
-    <row r="445" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -23489,7 +23488,7 @@
       <c r="AV445" s="2"/>
       <c r="AW445" s="2"/>
     </row>
-    <row r="446" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -23540,7 +23539,7 @@
       <c r="AV446" s="2"/>
       <c r="AW446" s="2"/>
     </row>
-    <row r="447" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -23591,7 +23590,7 @@
       <c r="AV447" s="2"/>
       <c r="AW447" s="2"/>
     </row>
-    <row r="448" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -23642,7 +23641,7 @@
       <c r="AV448" s="2"/>
       <c r="AW448" s="2"/>
     </row>
-    <row r="449" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -23693,7 +23692,7 @@
       <c r="AV449" s="2"/>
       <c r="AW449" s="2"/>
     </row>
-    <row r="450" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -23744,7 +23743,7 @@
       <c r="AV450" s="2"/>
       <c r="AW450" s="2"/>
     </row>
-    <row r="451" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -23795,7 +23794,7 @@
       <c r="AV451" s="2"/>
       <c r="AW451" s="2"/>
     </row>
-    <row r="452" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -23846,7 +23845,7 @@
       <c r="AV452" s="2"/>
       <c r="AW452" s="2"/>
     </row>
-    <row r="453" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -23897,7 +23896,7 @@
       <c r="AV453" s="2"/>
       <c r="AW453" s="2"/>
     </row>
-    <row r="454" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -23948,7 +23947,7 @@
       <c r="AV454" s="2"/>
       <c r="AW454" s="2"/>
     </row>
-    <row r="455" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -23999,7 +23998,7 @@
       <c r="AV455" s="2"/>
       <c r="AW455" s="2"/>
     </row>
-    <row r="456" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -24050,7 +24049,7 @@
       <c r="AV456" s="2"/>
       <c r="AW456" s="2"/>
     </row>
-    <row r="457" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -24101,7 +24100,7 @@
       <c r="AV457" s="2"/>
       <c r="AW457" s="2"/>
     </row>
-    <row r="458" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -24152,7 +24151,7 @@
       <c r="AV458" s="2"/>
       <c r="AW458" s="2"/>
     </row>
-    <row r="459" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -24203,7 +24202,7 @@
       <c r="AV459" s="2"/>
       <c r="AW459" s="2"/>
     </row>
-    <row r="460" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -24254,7 +24253,7 @@
       <c r="AV460" s="2"/>
       <c r="AW460" s="2"/>
     </row>
-    <row r="461" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -24305,7 +24304,7 @@
       <c r="AV461" s="2"/>
       <c r="AW461" s="2"/>
     </row>
-    <row r="462" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -24356,7 +24355,7 @@
       <c r="AV462" s="2"/>
       <c r="AW462" s="2"/>
     </row>
-    <row r="463" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -24407,7 +24406,7 @@
       <c r="AV463" s="2"/>
       <c r="AW463" s="2"/>
     </row>
-    <row r="464" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -24458,7 +24457,7 @@
       <c r="AV464" s="2"/>
       <c r="AW464" s="2"/>
     </row>
-    <row r="465" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -24509,7 +24508,7 @@
       <c r="AV465" s="2"/>
       <c r="AW465" s="2"/>
     </row>
-    <row r="466" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -24560,7 +24559,7 @@
       <c r="AV466" s="2"/>
       <c r="AW466" s="2"/>
     </row>
-    <row r="467" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -24611,7 +24610,7 @@
       <c r="AV467" s="2"/>
       <c r="AW467" s="2"/>
     </row>
-    <row r="468" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -24662,7 +24661,7 @@
       <c r="AV468" s="2"/>
       <c r="AW468" s="2"/>
     </row>
-    <row r="469" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -24713,7 +24712,7 @@
       <c r="AV469" s="2"/>
       <c r="AW469" s="2"/>
     </row>
-    <row r="470" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -24764,7 +24763,7 @@
       <c r="AV470" s="2"/>
       <c r="AW470" s="2"/>
     </row>
-    <row r="471" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -24815,7 +24814,7 @@
       <c r="AV471" s="2"/>
       <c r="AW471" s="2"/>
     </row>
-    <row r="472" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -24866,7 +24865,7 @@
       <c r="AV472" s="2"/>
       <c r="AW472" s="2"/>
     </row>
-    <row r="473" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -24917,7 +24916,7 @@
       <c r="AV473" s="2"/>
       <c r="AW473" s="2"/>
     </row>
-    <row r="474" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -24968,7 +24967,7 @@
       <c r="AV474" s="2"/>
       <c r="AW474" s="2"/>
     </row>
-    <row r="475" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -25019,7 +25018,7 @@
       <c r="AV475" s="2"/>
       <c r="AW475" s="2"/>
     </row>
-    <row r="476" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -25070,7 +25069,7 @@
       <c r="AV476" s="2"/>
       <c r="AW476" s="2"/>
     </row>
-    <row r="477" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -25121,7 +25120,7 @@
       <c r="AV477" s="2"/>
       <c r="AW477" s="2"/>
     </row>
-    <row r="478" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -25172,7 +25171,7 @@
       <c r="AV478" s="2"/>
       <c r="AW478" s="2"/>
     </row>
-    <row r="479" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -25223,7 +25222,7 @@
       <c r="AV479" s="2"/>
       <c r="AW479" s="2"/>
     </row>
-    <row r="480" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -25274,7 +25273,7 @@
       <c r="AV480" s="2"/>
       <c r="AW480" s="2"/>
     </row>
-    <row r="481" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -25325,7 +25324,7 @@
       <c r="AV481" s="2"/>
       <c r="AW481" s="2"/>
     </row>
-    <row r="482" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -25376,7 +25375,7 @@
       <c r="AV482" s="2"/>
       <c r="AW482" s="2"/>
     </row>
-    <row r="483" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -25427,7 +25426,7 @@
       <c r="AV483" s="2"/>
       <c r="AW483" s="2"/>
     </row>
-    <row r="484" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -25478,7 +25477,7 @@
       <c r="AV484" s="2"/>
       <c r="AW484" s="2"/>
     </row>
-    <row r="485" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -25529,7 +25528,7 @@
       <c r="AV485" s="2"/>
       <c r="AW485" s="2"/>
     </row>
-    <row r="486" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -25580,7 +25579,7 @@
       <c r="AV486" s="2"/>
       <c r="AW486" s="2"/>
     </row>
-    <row r="487" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -25631,7 +25630,7 @@
       <c r="AV487" s="2"/>
       <c r="AW487" s="2"/>
     </row>
-    <row r="488" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -25682,7 +25681,7 @@
       <c r="AV488" s="2"/>
       <c r="AW488" s="2"/>
     </row>
-    <row r="489" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -25733,7 +25732,7 @@
       <c r="AV489" s="2"/>
       <c r="AW489" s="2"/>
     </row>
-    <row r="490" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -25784,7 +25783,7 @@
       <c r="AV490" s="2"/>
       <c r="AW490" s="2"/>
     </row>
-    <row r="491" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -25835,7 +25834,7 @@
       <c r="AV491" s="2"/>
       <c r="AW491" s="2"/>
     </row>
-    <row r="492" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -25886,7 +25885,7 @@
       <c r="AV492" s="2"/>
       <c r="AW492" s="2"/>
     </row>
-    <row r="493" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -25937,7 +25936,7 @@
       <c r="AV493" s="2"/>
       <c r="AW493" s="2"/>
     </row>
-    <row r="494" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -25988,7 +25987,7 @@
       <c r="AV494" s="2"/>
       <c r="AW494" s="2"/>
     </row>
-    <row r="495" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -26039,7 +26038,7 @@
       <c r="AV495" s="2"/>
       <c r="AW495" s="2"/>
     </row>
-    <row r="496" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -26090,7 +26089,7 @@
       <c r="AV496" s="2"/>
       <c r="AW496" s="2"/>
     </row>
-    <row r="497" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -26141,7 +26140,7 @@
       <c r="AV497" s="2"/>
       <c r="AW497" s="2"/>
     </row>
-    <row r="498" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -26192,7 +26191,7 @@
       <c r="AV498" s="2"/>
       <c r="AW498" s="2"/>
     </row>
-    <row r="499" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -26243,7 +26242,7 @@
       <c r="AV499" s="2"/>
       <c r="AW499" s="2"/>
     </row>
-    <row r="500" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -26294,7 +26293,7 @@
       <c r="AV500" s="2"/>
       <c r="AW500" s="2"/>
     </row>
-    <row r="501" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -26345,7 +26344,7 @@
       <c r="AV501" s="2"/>
       <c r="AW501" s="2"/>
     </row>
-    <row r="502" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -26396,7 +26395,7 @@
       <c r="AV502" s="2"/>
       <c r="AW502" s="2"/>
     </row>
-    <row r="503" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -26447,7 +26446,7 @@
       <c r="AV503" s="2"/>
       <c r="AW503" s="2"/>
     </row>
-    <row r="504" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -26498,7 +26497,7 @@
       <c r="AV504" s="2"/>
       <c r="AW504" s="2"/>
     </row>
-    <row r="505" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -26549,7 +26548,7 @@
       <c r="AV505" s="2"/>
       <c r="AW505" s="2"/>
     </row>
-    <row r="506" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -26600,7 +26599,7 @@
       <c r="AV506" s="2"/>
       <c r="AW506" s="2"/>
     </row>
-    <row r="507" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -26651,7 +26650,7 @@
       <c r="AV507" s="2"/>
       <c r="AW507" s="2"/>
     </row>
-    <row r="508" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -26702,7 +26701,7 @@
       <c r="AV508" s="2"/>
       <c r="AW508" s="2"/>
     </row>
-    <row r="509" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -26753,7 +26752,7 @@
       <c r="AV509" s="2"/>
       <c r="AW509" s="2"/>
     </row>
-    <row r="510" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -26804,7 +26803,7 @@
       <c r="AV510" s="2"/>
       <c r="AW510" s="2"/>
     </row>
-    <row r="511" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -26855,7 +26854,7 @@
       <c r="AV511" s="2"/>
       <c r="AW511" s="2"/>
     </row>
-    <row r="512" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -26906,7 +26905,7 @@
       <c r="AV512" s="2"/>
       <c r="AW512" s="2"/>
     </row>
-    <row r="513" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -26957,7 +26956,7 @@
       <c r="AV513" s="2"/>
       <c r="AW513" s="2"/>
     </row>
-    <row r="514" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -27008,7 +27007,7 @@
       <c r="AV514" s="2"/>
       <c r="AW514" s="2"/>
     </row>
-    <row r="515" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -27059,7 +27058,7 @@
       <c r="AV515" s="2"/>
       <c r="AW515" s="2"/>
     </row>
-    <row r="516" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -27110,7 +27109,7 @@
       <c r="AV516" s="2"/>
       <c r="AW516" s="2"/>
     </row>
-    <row r="517" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -27161,7 +27160,7 @@
       <c r="AV517" s="2"/>
       <c r="AW517" s="2"/>
     </row>
-    <row r="518" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -27212,7 +27211,7 @@
       <c r="AV518" s="2"/>
       <c r="AW518" s="2"/>
     </row>
-    <row r="519" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -27263,7 +27262,7 @@
       <c r="AV519" s="2"/>
       <c r="AW519" s="2"/>
     </row>
-    <row r="520" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -27314,7 +27313,7 @@
       <c r="AV520" s="2"/>
       <c r="AW520" s="2"/>
     </row>
-    <row r="521" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -27365,7 +27364,7 @@
       <c r="AV521" s="2"/>
       <c r="AW521" s="2"/>
     </row>
-    <row r="522" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -27416,7 +27415,7 @@
       <c r="AV522" s="2"/>
       <c r="AW522" s="2"/>
     </row>
-    <row r="523" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -27467,7 +27466,7 @@
       <c r="AV523" s="2"/>
       <c r="AW523" s="2"/>
     </row>
-    <row r="524" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -27518,7 +27517,7 @@
       <c r="AV524" s="2"/>
       <c r="AW524" s="2"/>
     </row>
-    <row r="525" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -27569,7 +27568,7 @@
       <c r="AV525" s="2"/>
       <c r="AW525" s="2"/>
     </row>
-    <row r="526" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -27620,7 +27619,7 @@
       <c r="AV526" s="2"/>
       <c r="AW526" s="2"/>
     </row>
-    <row r="527" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -27671,7 +27670,7 @@
       <c r="AV527" s="2"/>
       <c r="AW527" s="2"/>
     </row>
-    <row r="528" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -27722,7 +27721,7 @@
       <c r="AV528" s="2"/>
       <c r="AW528" s="2"/>
     </row>
-    <row r="529" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -27773,7 +27772,7 @@
       <c r="AV529" s="2"/>
       <c r="AW529" s="2"/>
     </row>
-    <row r="530" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -27824,7 +27823,7 @@
       <c r="AV530" s="2"/>
       <c r="AW530" s="2"/>
     </row>
-    <row r="531" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -27875,7 +27874,7 @@
       <c r="AV531" s="2"/>
       <c r="AW531" s="2"/>
     </row>
-    <row r="532" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -27926,7 +27925,7 @@
       <c r="AV532" s="2"/>
       <c r="AW532" s="2"/>
     </row>
-    <row r="533" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -27977,7 +27976,7 @@
       <c r="AV533" s="2"/>
       <c r="AW533" s="2"/>
     </row>
-    <row r="534" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -28028,7 +28027,7 @@
       <c r="AV534" s="2"/>
       <c r="AW534" s="2"/>
     </row>
-    <row r="535" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -28079,7 +28078,7 @@
       <c r="AV535" s="2"/>
       <c r="AW535" s="2"/>
     </row>
-    <row r="536" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -28130,7 +28129,7 @@
       <c r="AV536" s="2"/>
       <c r="AW536" s="2"/>
     </row>
-    <row r="537" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -28181,7 +28180,7 @@
       <c r="AV537" s="2"/>
       <c r="AW537" s="2"/>
     </row>
-    <row r="538" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -28232,7 +28231,7 @@
       <c r="AV538" s="2"/>
       <c r="AW538" s="2"/>
     </row>
-    <row r="539" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -28283,7 +28282,7 @@
       <c r="AV539" s="2"/>
       <c r="AW539" s="2"/>
     </row>
-    <row r="540" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -28334,7 +28333,7 @@
       <c r="AV540" s="2"/>
       <c r="AW540" s="2"/>
     </row>
-    <row r="541" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -28385,7 +28384,7 @@
       <c r="AV541" s="2"/>
       <c r="AW541" s="2"/>
     </row>
-    <row r="542" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -28436,7 +28435,7 @@
       <c r="AV542" s="2"/>
       <c r="AW542" s="2"/>
     </row>
-    <row r="543" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -28487,7 +28486,7 @@
       <c r="AV543" s="2"/>
       <c r="AW543" s="2"/>
     </row>
-    <row r="544" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -28538,7 +28537,7 @@
       <c r="AV544" s="2"/>
       <c r="AW544" s="2"/>
     </row>
-    <row r="545" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -28589,7 +28588,7 @@
       <c r="AV545" s="2"/>
       <c r="AW545" s="2"/>
     </row>
-    <row r="546" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -28640,7 +28639,7 @@
       <c r="AV546" s="2"/>
       <c r="AW546" s="2"/>
     </row>
-    <row r="547" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -28691,7 +28690,7 @@
       <c r="AV547" s="2"/>
       <c r="AW547" s="2"/>
     </row>
-    <row r="548" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -28742,7 +28741,7 @@
       <c r="AV548" s="2"/>
       <c r="AW548" s="2"/>
     </row>
-    <row r="549" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -28793,7 +28792,7 @@
       <c r="AV549" s="2"/>
       <c r="AW549" s="2"/>
     </row>
-    <row r="550" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -28844,7 +28843,7 @@
       <c r="AV550" s="2"/>
       <c r="AW550" s="2"/>
     </row>
-    <row r="551" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -28895,7 +28894,7 @@
       <c r="AV551" s="2"/>
       <c r="AW551" s="2"/>
     </row>
-    <row r="552" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -28946,7 +28945,7 @@
       <c r="AV552" s="2"/>
       <c r="AW552" s="2"/>
     </row>
-    <row r="553" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -28997,7 +28996,7 @@
       <c r="AV553" s="2"/>
       <c r="AW553" s="2"/>
     </row>
-    <row r="554" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -29048,7 +29047,7 @@
       <c r="AV554" s="2"/>
       <c r="AW554" s="2"/>
     </row>
-    <row r="555" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -29099,7 +29098,7 @@
       <c r="AV555" s="2"/>
       <c r="AW555" s="2"/>
     </row>
-    <row r="556" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -29150,7 +29149,7 @@
       <c r="AV556" s="2"/>
       <c r="AW556" s="2"/>
     </row>
-    <row r="557" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -29201,7 +29200,7 @@
       <c r="AV557" s="2"/>
       <c r="AW557" s="2"/>
     </row>
-    <row r="558" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -29252,7 +29251,7 @@
       <c r="AV558" s="2"/>
       <c r="AW558" s="2"/>
     </row>
-    <row r="559" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -29303,7 +29302,7 @@
       <c r="AV559" s="2"/>
       <c r="AW559" s="2"/>
     </row>
-    <row r="560" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -29354,7 +29353,7 @@
       <c r="AV560" s="2"/>
       <c r="AW560" s="2"/>
     </row>
-    <row r="561" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -29405,7 +29404,7 @@
       <c r="AV561" s="2"/>
       <c r="AW561" s="2"/>
     </row>
-    <row r="562" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -29456,7 +29455,7 @@
       <c r="AV562" s="2"/>
       <c r="AW562" s="2"/>
     </row>
-    <row r="563" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -29507,7 +29506,7 @@
       <c r="AV563" s="2"/>
       <c r="AW563" s="2"/>
     </row>
-    <row r="564" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -29558,7 +29557,7 @@
       <c r="AV564" s="2"/>
       <c r="AW564" s="2"/>
     </row>
-    <row r="565" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -29609,7 +29608,7 @@
       <c r="AV565" s="2"/>
       <c r="AW565" s="2"/>
     </row>
-    <row r="566" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -29660,7 +29659,7 @@
       <c r="AV566" s="2"/>
       <c r="AW566" s="2"/>
     </row>
-    <row r="567" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -29711,7 +29710,7 @@
       <c r="AV567" s="2"/>
       <c r="AW567" s="2"/>
     </row>
-    <row r="568" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -29762,7 +29761,7 @@
       <c r="AV568" s="2"/>
       <c r="AW568" s="2"/>
     </row>
-    <row r="569" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -29813,7 +29812,7 @@
       <c r="AV569" s="2"/>
       <c r="AW569" s="2"/>
     </row>
-    <row r="570" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -29864,7 +29863,7 @@
       <c r="AV570" s="2"/>
       <c r="AW570" s="2"/>
     </row>
-    <row r="571" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -29915,7 +29914,7 @@
       <c r="AV571" s="2"/>
       <c r="AW571" s="2"/>
     </row>
-    <row r="572" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -29966,7 +29965,7 @@
       <c r="AV572" s="2"/>
       <c r="AW572" s="2"/>
     </row>
-    <row r="573" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -30017,7 +30016,7 @@
       <c r="AV573" s="2"/>
       <c r="AW573" s="2"/>
     </row>
-    <row r="574" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -30068,7 +30067,7 @@
       <c r="AV574" s="2"/>
       <c r="AW574" s="2"/>
     </row>
-    <row r="575" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -30119,7 +30118,7 @@
       <c r="AV575" s="2"/>
       <c r="AW575" s="2"/>
     </row>
-    <row r="576" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -30170,7 +30169,7 @@
       <c r="AV576" s="2"/>
       <c r="AW576" s="2"/>
     </row>
-    <row r="577" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -30221,7 +30220,7 @@
       <c r="AV577" s="2"/>
       <c r="AW577" s="2"/>
     </row>
-    <row r="578" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -30272,7 +30271,7 @@
       <c r="AV578" s="2"/>
       <c r="AW578" s="2"/>
     </row>
-    <row r="579" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -30323,7 +30322,7 @@
       <c r="AV579" s="2"/>
       <c r="AW579" s="2"/>
     </row>
-    <row r="580" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -30374,7 +30373,7 @@
       <c r="AV580" s="2"/>
       <c r="AW580" s="2"/>
     </row>
-    <row r="581" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -30425,7 +30424,7 @@
       <c r="AV581" s="2"/>
       <c r="AW581" s="2"/>
     </row>
-    <row r="582" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -30476,7 +30475,7 @@
       <c r="AV582" s="2"/>
       <c r="AW582" s="2"/>
     </row>
-    <row r="583" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -30527,7 +30526,7 @@
       <c r="AV583" s="2"/>
       <c r="AW583" s="2"/>
     </row>
-    <row r="584" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -30578,7 +30577,7 @@
       <c r="AV584" s="2"/>
       <c r="AW584" s="2"/>
     </row>
-    <row r="585" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -30629,7 +30628,7 @@
       <c r="AV585" s="2"/>
       <c r="AW585" s="2"/>
     </row>
-    <row r="586" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -30680,7 +30679,7 @@
       <c r="AV586" s="2"/>
       <c r="AW586" s="2"/>
     </row>
-    <row r="587" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -30731,7 +30730,7 @@
       <c r="AV587" s="2"/>
       <c r="AW587" s="2"/>
     </row>
-    <row r="588" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -30782,7 +30781,7 @@
       <c r="AV588" s="2"/>
       <c r="AW588" s="2"/>
     </row>
-    <row r="589" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -30833,7 +30832,7 @@
       <c r="AV589" s="2"/>
       <c r="AW589" s="2"/>
     </row>
-    <row r="590" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -30884,7 +30883,7 @@
       <c r="AV590" s="2"/>
       <c r="AW590" s="2"/>
     </row>
-    <row r="591" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -30935,7 +30934,7 @@
       <c r="AV591" s="2"/>
       <c r="AW591" s="2"/>
     </row>
-    <row r="592" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -30986,7 +30985,7 @@
       <c r="AV592" s="2"/>
       <c r="AW592" s="2"/>
     </row>
-    <row r="593" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -31037,7 +31036,7 @@
       <c r="AV593" s="2"/>
       <c r="AW593" s="2"/>
     </row>
-    <row r="594" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -31088,7 +31087,7 @@
       <c r="AV594" s="2"/>
       <c r="AW594" s="2"/>
     </row>
-    <row r="595" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -31139,7 +31138,7 @@
       <c r="AV595" s="2"/>
       <c r="AW595" s="2"/>
     </row>
-    <row r="596" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -31190,7 +31189,7 @@
       <c r="AV596" s="2"/>
       <c r="AW596" s="2"/>
     </row>
-    <row r="597" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -31241,7 +31240,7 @@
       <c r="AV597" s="2"/>
       <c r="AW597" s="2"/>
     </row>
-    <row r="598" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -31292,7 +31291,7 @@
       <c r="AV598" s="2"/>
       <c r="AW598" s="2"/>
     </row>
-    <row r="599" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -31343,7 +31342,7 @@
       <c r="AV599" s="2"/>
       <c r="AW599" s="2"/>
     </row>
-    <row r="600" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -31394,7 +31393,7 @@
       <c r="AV600" s="2"/>
       <c r="AW600" s="2"/>
     </row>
-    <row r="601" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -31445,7 +31444,7 @@
       <c r="AV601" s="2"/>
       <c r="AW601" s="2"/>
     </row>
-    <row r="602" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -31496,7 +31495,7 @@
       <c r="AV602" s="2"/>
       <c r="AW602" s="2"/>
     </row>
-    <row r="603" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -31547,7 +31546,7 @@
       <c r="AV603" s="2"/>
       <c r="AW603" s="2"/>
     </row>
-    <row r="604" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -31598,7 +31597,7 @@
       <c r="AV604" s="2"/>
       <c r="AW604" s="2"/>
     </row>
-    <row r="605" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -31649,7 +31648,7 @@
       <c r="AV605" s="2"/>
       <c r="AW605" s="2"/>
     </row>
-    <row r="606" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -31700,7 +31699,7 @@
       <c r="AV606" s="2"/>
       <c r="AW606" s="2"/>
     </row>
-    <row r="607" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -31751,7 +31750,7 @@
       <c r="AV607" s="2"/>
       <c r="AW607" s="2"/>
     </row>
-    <row r="608" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -31802,7 +31801,7 @@
       <c r="AV608" s="2"/>
       <c r="AW608" s="2"/>
     </row>
-    <row r="609" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -31853,7 +31852,7 @@
       <c r="AV609" s="2"/>
       <c r="AW609" s="2"/>
     </row>
-    <row r="610" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -31904,7 +31903,7 @@
       <c r="AV610" s="2"/>
       <c r="AW610" s="2"/>
     </row>
-    <row r="611" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -31955,7 +31954,7 @@
       <c r="AV611" s="2"/>
       <c r="AW611" s="2"/>
     </row>
-    <row r="612" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -32006,7 +32005,7 @@
       <c r="AV612" s="2"/>
       <c r="AW612" s="2"/>
     </row>
-    <row r="613" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -32057,7 +32056,7 @@
       <c r="AV613" s="2"/>
       <c r="AW613" s="2"/>
     </row>
-    <row r="614" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -32108,7 +32107,7 @@
       <c r="AV614" s="2"/>
       <c r="AW614" s="2"/>
     </row>
-    <row r="615" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -32159,7 +32158,7 @@
       <c r="AV615" s="2"/>
       <c r="AW615" s="2"/>
     </row>
-    <row r="616" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -32210,7 +32209,7 @@
       <c r="AV616" s="2"/>
       <c r="AW616" s="2"/>
     </row>
-    <row r="617" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -32261,7 +32260,7 @@
       <c r="AV617" s="2"/>
       <c r="AW617" s="2"/>
     </row>
-    <row r="618" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -32312,7 +32311,7 @@
       <c r="AV618" s="2"/>
       <c r="AW618" s="2"/>
     </row>
-    <row r="619" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -32363,7 +32362,7 @@
       <c r="AV619" s="2"/>
       <c r="AW619" s="2"/>
     </row>
-    <row r="620" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -32414,7 +32413,7 @@
       <c r="AV620" s="2"/>
       <c r="AW620" s="2"/>
     </row>
-    <row r="621" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -32465,7 +32464,7 @@
       <c r="AV621" s="2"/>
       <c r="AW621" s="2"/>
     </row>
-    <row r="622" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -32516,7 +32515,7 @@
       <c r="AV622" s="2"/>
       <c r="AW622" s="2"/>
     </row>
-    <row r="623" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -32567,7 +32566,7 @@
       <c r="AV623" s="2"/>
       <c r="AW623" s="2"/>
     </row>
-    <row r="624" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -32618,7 +32617,7 @@
       <c r="AV624" s="2"/>
       <c r="AW624" s="2"/>
     </row>
-    <row r="625" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -32669,7 +32668,7 @@
       <c r="AV625" s="2"/>
       <c r="AW625" s="2"/>
     </row>
-    <row r="626" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -32720,7 +32719,7 @@
       <c r="AV626" s="2"/>
       <c r="AW626" s="2"/>
     </row>
-    <row r="627" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -32771,7 +32770,7 @@
       <c r="AV627" s="2"/>
       <c r="AW627" s="2"/>
     </row>
-    <row r="628" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -32822,7 +32821,7 @@
       <c r="AV628" s="2"/>
       <c r="AW628" s="2"/>
     </row>
-    <row r="629" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -32873,7 +32872,7 @@
       <c r="AV629" s="2"/>
       <c r="AW629" s="2"/>
     </row>
-    <row r="630" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -32924,7 +32923,7 @@
       <c r="AV630" s="2"/>
       <c r="AW630" s="2"/>
     </row>
-    <row r="631" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -32975,7 +32974,7 @@
       <c r="AV631" s="2"/>
       <c r="AW631" s="2"/>
     </row>
-    <row r="632" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -33026,7 +33025,7 @@
       <c r="AV632" s="2"/>
       <c r="AW632" s="2"/>
     </row>
-    <row r="633" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -33077,7 +33076,7 @@
       <c r="AV633" s="2"/>
       <c r="AW633" s="2"/>
     </row>
-    <row r="634" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -33128,7 +33127,7 @@
       <c r="AV634" s="2"/>
       <c r="AW634" s="2"/>
     </row>
-    <row r="635" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -33179,7 +33178,7 @@
       <c r="AV635" s="2"/>
       <c r="AW635" s="2"/>
     </row>
-    <row r="636" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -33230,7 +33229,7 @@
       <c r="AV636" s="2"/>
       <c r="AW636" s="2"/>
     </row>
-    <row r="637" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -33281,7 +33280,7 @@
       <c r="AV637" s="2"/>
       <c r="AW637" s="2"/>
     </row>
-    <row r="638" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -33332,7 +33331,7 @@
       <c r="AV638" s="2"/>
       <c r="AW638" s="2"/>
     </row>
-    <row r="639" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -33383,7 +33382,7 @@
       <c r="AV639" s="2"/>
       <c r="AW639" s="2"/>
     </row>
-    <row r="640" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -33434,7 +33433,7 @@
       <c r="AV640" s="2"/>
       <c r="AW640" s="2"/>
     </row>
-    <row r="641" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -33485,7 +33484,7 @@
       <c r="AV641" s="2"/>
       <c r="AW641" s="2"/>
     </row>
-    <row r="642" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -33536,7 +33535,7 @@
       <c r="AV642" s="2"/>
       <c r="AW642" s="2"/>
     </row>
-    <row r="643" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -33587,7 +33586,7 @@
       <c r="AV643" s="2"/>
       <c r="AW643" s="2"/>
     </row>
-    <row r="644" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -33638,7 +33637,7 @@
       <c r="AV644" s="2"/>
       <c r="AW644" s="2"/>
     </row>
-    <row r="645" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -33689,7 +33688,7 @@
       <c r="AV645" s="2"/>
       <c r="AW645" s="2"/>
     </row>
-    <row r="646" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -33740,7 +33739,7 @@
       <c r="AV646" s="2"/>
       <c r="AW646" s="2"/>
     </row>
-    <row r="647" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -33791,7 +33790,7 @@
       <c r="AV647" s="2"/>
       <c r="AW647" s="2"/>
     </row>
-    <row r="648" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -33842,7 +33841,7 @@
       <c r="AV648" s="2"/>
       <c r="AW648" s="2"/>
     </row>
-    <row r="649" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -33893,7 +33892,7 @@
       <c r="AV649" s="2"/>
       <c r="AW649" s="2"/>
     </row>
-    <row r="650" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -33944,7 +33943,7 @@
       <c r="AV650" s="2"/>
       <c r="AW650" s="2"/>
     </row>
-    <row r="651" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -33995,7 +33994,7 @@
       <c r="AV651" s="2"/>
       <c r="AW651" s="2"/>
     </row>
-    <row r="652" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -34046,7 +34045,7 @@
       <c r="AV652" s="2"/>
       <c r="AW652" s="2"/>
     </row>
-    <row r="653" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -34097,7 +34096,7 @@
       <c r="AV653" s="2"/>
       <c r="AW653" s="2"/>
     </row>
-    <row r="654" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -34148,7 +34147,7 @@
       <c r="AV654" s="2"/>
       <c r="AW654" s="2"/>
     </row>
-    <row r="655" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -34199,7 +34198,7 @@
       <c r="AV655" s="2"/>
       <c r="AW655" s="2"/>
     </row>
-    <row r="656" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -34250,7 +34249,7 @@
       <c r="AV656" s="2"/>
       <c r="AW656" s="2"/>
     </row>
-    <row r="657" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -34301,7 +34300,7 @@
       <c r="AV657" s="2"/>
       <c r="AW657" s="2"/>
     </row>
-    <row r="658" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -34352,7 +34351,7 @@
       <c r="AV658" s="2"/>
       <c r="AW658" s="2"/>
     </row>
-    <row r="659" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -34403,7 +34402,7 @@
       <c r="AV659" s="2"/>
       <c r="AW659" s="2"/>
     </row>
-    <row r="660" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -34454,7 +34453,7 @@
       <c r="AV660" s="2"/>
       <c r="AW660" s="2"/>
     </row>
-    <row r="661" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -34505,7 +34504,7 @@
       <c r="AV661" s="2"/>
       <c r="AW661" s="2"/>
     </row>
-    <row r="662" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -34556,7 +34555,7 @@
       <c r="AV662" s="2"/>
       <c r="AW662" s="2"/>
     </row>
-    <row r="663" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -34607,7 +34606,7 @@
       <c r="AV663" s="2"/>
       <c r="AW663" s="2"/>
     </row>
-    <row r="664" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -34658,7 +34657,7 @@
       <c r="AV664" s="2"/>
       <c r="AW664" s="2"/>
     </row>
-    <row r="665" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -34709,7 +34708,7 @@
       <c r="AV665" s="2"/>
       <c r="AW665" s="2"/>
     </row>
-    <row r="666" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -34760,7 +34759,7 @@
       <c r="AV666" s="2"/>
       <c r="AW666" s="2"/>
     </row>
-    <row r="667" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -34811,7 +34810,7 @@
       <c r="AV667" s="2"/>
       <c r="AW667" s="2"/>
     </row>
-    <row r="668" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -34862,7 +34861,7 @@
       <c r="AV668" s="2"/>
       <c r="AW668" s="2"/>
     </row>
-    <row r="669" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -34913,7 +34912,7 @@
       <c r="AV669" s="2"/>
       <c r="AW669" s="2"/>
     </row>
-    <row r="670" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -34964,7 +34963,7 @@
       <c r="AV670" s="2"/>
       <c r="AW670" s="2"/>
     </row>
-    <row r="671" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -35015,7 +35014,7 @@
       <c r="AV671" s="2"/>
       <c r="AW671" s="2"/>
     </row>
-    <row r="672" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -35066,7 +35065,7 @@
       <c r="AV672" s="2"/>
       <c r="AW672" s="2"/>
     </row>
-    <row r="673" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -35117,7 +35116,7 @@
       <c r="AV673" s="2"/>
       <c r="AW673" s="2"/>
     </row>
-    <row r="674" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -35168,7 +35167,7 @@
       <c r="AV674" s="2"/>
       <c r="AW674" s="2"/>
     </row>
-    <row r="675" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -35219,7 +35218,7 @@
       <c r="AV675" s="2"/>
       <c r="AW675" s="2"/>
     </row>
-    <row r="676" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -35270,7 +35269,7 @@
       <c r="AV676" s="2"/>
       <c r="AW676" s="2"/>
     </row>
-    <row r="677" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -35321,7 +35320,7 @@
       <c r="AV677" s="2"/>
       <c r="AW677" s="2"/>
     </row>
-    <row r="678" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -35372,7 +35371,7 @@
       <c r="AV678" s="2"/>
       <c r="AW678" s="2"/>
     </row>
-    <row r="679" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -35423,7 +35422,7 @@
       <c r="AV679" s="2"/>
       <c r="AW679" s="2"/>
     </row>
-    <row r="680" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -35474,7 +35473,7 @@
       <c r="AV680" s="2"/>
       <c r="AW680" s="2"/>
     </row>
-    <row r="681" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -35525,7 +35524,7 @@
       <c r="AV681" s="2"/>
       <c r="AW681" s="2"/>
     </row>
-    <row r="682" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -35576,7 +35575,7 @@
       <c r="AV682" s="2"/>
       <c r="AW682" s="2"/>
     </row>
-    <row r="683" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -35627,7 +35626,7 @@
       <c r="AV683" s="2"/>
       <c r="AW683" s="2"/>
     </row>
-    <row r="684" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -35678,7 +35677,7 @@
       <c r="AV684" s="2"/>
       <c r="AW684" s="2"/>
     </row>
-    <row r="685" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -35729,7 +35728,7 @@
       <c r="AV685" s="2"/>
       <c r="AW685" s="2"/>
     </row>
-    <row r="686" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -35780,7 +35779,7 @@
       <c r="AV686" s="2"/>
       <c r="AW686" s="2"/>
     </row>
-    <row r="687" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -35831,7 +35830,7 @@
       <c r="AV687" s="2"/>
       <c r="AW687" s="2"/>
     </row>
-    <row r="688" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -35882,7 +35881,7 @@
       <c r="AV688" s="2"/>
       <c r="AW688" s="2"/>
     </row>
-    <row r="689" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -35933,7 +35932,7 @@
       <c r="AV689" s="2"/>
       <c r="AW689" s="2"/>
     </row>
-    <row r="690" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -35984,7 +35983,7 @@
       <c r="AV690" s="2"/>
       <c r="AW690" s="2"/>
     </row>
-    <row r="691" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -36035,7 +36034,7 @@
       <c r="AV691" s="2"/>
       <c r="AW691" s="2"/>
     </row>
-    <row r="692" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -36086,7 +36085,7 @@
       <c r="AV692" s="2"/>
       <c r="AW692" s="2"/>
     </row>
-    <row r="693" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -36137,7 +36136,7 @@
       <c r="AV693" s="2"/>
       <c r="AW693" s="2"/>
     </row>
-    <row r="694" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -36188,7 +36187,7 @@
       <c r="AV694" s="2"/>
       <c r="AW694" s="2"/>
     </row>
-    <row r="695" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -36239,7 +36238,7 @@
       <c r="AV695" s="2"/>
       <c r="AW695" s="2"/>
     </row>
-    <row r="696" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -36290,7 +36289,7 @@
       <c r="AV696" s="2"/>
       <c r="AW696" s="2"/>
     </row>
-    <row r="697" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -36341,7 +36340,7 @@
       <c r="AV697" s="2"/>
       <c r="AW697" s="2"/>
     </row>
-    <row r="698" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -36392,7 +36391,7 @@
       <c r="AV698" s="2"/>
       <c r="AW698" s="2"/>
     </row>
-    <row r="699" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -36443,7 +36442,7 @@
       <c r="AV699" s="2"/>
       <c r="AW699" s="2"/>
     </row>
-    <row r="700" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -36494,7 +36493,7 @@
       <c r="AV700" s="2"/>
       <c r="AW700" s="2"/>
     </row>
-    <row r="701" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -36545,7 +36544,7 @@
       <c r="AV701" s="2"/>
       <c r="AW701" s="2"/>
     </row>
-    <row r="702" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -36596,7 +36595,7 @@
       <c r="AV702" s="2"/>
       <c r="AW702" s="2"/>
     </row>
-    <row r="703" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -36647,7 +36646,7 @@
       <c r="AV703" s="2"/>
       <c r="AW703" s="2"/>
     </row>
-    <row r="704" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -36698,7 +36697,7 @@
       <c r="AV704" s="2"/>
       <c r="AW704" s="2"/>
     </row>
-    <row r="705" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -36749,7 +36748,7 @@
       <c r="AV705" s="2"/>
       <c r="AW705" s="2"/>
     </row>
-    <row r="706" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -36800,7 +36799,7 @@
       <c r="AV706" s="2"/>
       <c r="AW706" s="2"/>
     </row>
-    <row r="707" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -36851,7 +36850,7 @@
       <c r="AV707" s="2"/>
       <c r="AW707" s="2"/>
     </row>
-    <row r="708" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -36902,7 +36901,7 @@
       <c r="AV708" s="2"/>
       <c r="AW708" s="2"/>
     </row>
-    <row r="709" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -36953,7 +36952,7 @@
       <c r="AV709" s="2"/>
       <c r="AW709" s="2"/>
     </row>
-    <row r="710" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -37004,7 +37003,7 @@
       <c r="AV710" s="2"/>
       <c r="AW710" s="2"/>
     </row>
-    <row r="711" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -37055,7 +37054,7 @@
       <c r="AV711" s="2"/>
       <c r="AW711" s="2"/>
     </row>
-    <row r="712" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -37106,7 +37105,7 @@
       <c r="AV712" s="2"/>
       <c r="AW712" s="2"/>
     </row>
-    <row r="713" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -37157,7 +37156,7 @@
       <c r="AV713" s="2"/>
       <c r="AW713" s="2"/>
     </row>
-    <row r="714" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -37208,7 +37207,7 @@
       <c r="AV714" s="2"/>
       <c r="AW714" s="2"/>
     </row>
-    <row r="715" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -37259,7 +37258,7 @@
       <c r="AV715" s="2"/>
       <c r="AW715" s="2"/>
     </row>
-    <row r="716" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -37310,7 +37309,7 @@
       <c r="AV716" s="2"/>
       <c r="AW716" s="2"/>
     </row>
-    <row r="717" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -37361,7 +37360,7 @@
       <c r="AV717" s="2"/>
       <c r="AW717" s="2"/>
     </row>
-    <row r="718" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -37412,7 +37411,7 @@
       <c r="AV718" s="2"/>
       <c r="AW718" s="2"/>
     </row>
-    <row r="719" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -37463,7 +37462,7 @@
       <c r="AV719" s="2"/>
       <c r="AW719" s="2"/>
     </row>
-    <row r="720" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -37514,7 +37513,7 @@
       <c r="AV720" s="2"/>
       <c r="AW720" s="2"/>
     </row>
-    <row r="721" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -37565,7 +37564,7 @@
       <c r="AV721" s="2"/>
       <c r="AW721" s="2"/>
     </row>
-    <row r="722" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -37616,7 +37615,7 @@
       <c r="AV722" s="2"/>
       <c r="AW722" s="2"/>
     </row>
-    <row r="723" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -37667,7 +37666,7 @@
       <c r="AV723" s="2"/>
       <c r="AW723" s="2"/>
     </row>
-    <row r="724" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -37718,7 +37717,7 @@
       <c r="AV724" s="2"/>
       <c r="AW724" s="2"/>
     </row>
-    <row r="725" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -37769,7 +37768,7 @@
       <c r="AV725" s="2"/>
       <c r="AW725" s="2"/>
     </row>
-    <row r="726" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -37820,7 +37819,7 @@
       <c r="AV726" s="2"/>
       <c r="AW726" s="2"/>
     </row>
-    <row r="727" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -37871,7 +37870,7 @@
       <c r="AV727" s="2"/>
       <c r="AW727" s="2"/>
     </row>
-    <row r="728" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -37922,7 +37921,7 @@
       <c r="AV728" s="2"/>
       <c r="AW728" s="2"/>
     </row>
-    <row r="729" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -37973,7 +37972,7 @@
       <c r="AV729" s="2"/>
       <c r="AW729" s="2"/>
     </row>
-    <row r="730" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -38024,7 +38023,7 @@
       <c r="AV730" s="2"/>
       <c r="AW730" s="2"/>
     </row>
-    <row r="731" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -38075,7 +38074,7 @@
       <c r="AV731" s="2"/>
       <c r="AW731" s="2"/>
     </row>
-    <row r="732" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -38126,7 +38125,7 @@
       <c r="AV732" s="2"/>
       <c r="AW732" s="2"/>
     </row>
-    <row r="733" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -38177,7 +38176,7 @@
       <c r="AV733" s="2"/>
       <c r="AW733" s="2"/>
     </row>
-    <row r="734" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -38228,7 +38227,7 @@
       <c r="AV734" s="2"/>
       <c r="AW734" s="2"/>
     </row>
-    <row r="735" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -38279,7 +38278,7 @@
       <c r="AV735" s="2"/>
       <c r="AW735" s="2"/>
     </row>
-    <row r="736" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -38330,7 +38329,7 @@
       <c r="AV736" s="2"/>
       <c r="AW736" s="2"/>
     </row>
-    <row r="737" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -38381,7 +38380,7 @@
       <c r="AV737" s="2"/>
       <c r="AW737" s="2"/>
     </row>
-    <row r="738" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -38432,7 +38431,7 @@
       <c r="AV738" s="2"/>
       <c r="AW738" s="2"/>
     </row>
-    <row r="739" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -38483,7 +38482,7 @@
       <c r="AV739" s="2"/>
       <c r="AW739" s="2"/>
     </row>
-    <row r="740" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -38534,7 +38533,7 @@
       <c r="AV740" s="2"/>
       <c r="AW740" s="2"/>
     </row>
-    <row r="741" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -38585,7 +38584,7 @@
       <c r="AV741" s="2"/>
       <c r="AW741" s="2"/>
     </row>
-    <row r="742" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -38636,7 +38635,7 @@
       <c r="AV742" s="2"/>
       <c r="AW742" s="2"/>
     </row>
-    <row r="743" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -38687,7 +38686,7 @@
       <c r="AV743" s="2"/>
       <c r="AW743" s="2"/>
     </row>
-    <row r="744" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -38738,7 +38737,7 @@
       <c r="AV744" s="2"/>
       <c r="AW744" s="2"/>
     </row>
-    <row r="745" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -38789,7 +38788,7 @@
       <c r="AV745" s="2"/>
       <c r="AW745" s="2"/>
     </row>
-    <row r="746" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -38840,7 +38839,7 @@
       <c r="AV746" s="2"/>
       <c r="AW746" s="2"/>
     </row>
-    <row r="747" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -38891,7 +38890,7 @@
       <c r="AV747" s="2"/>
       <c r="AW747" s="2"/>
     </row>
-    <row r="748" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -38942,7 +38941,7 @@
       <c r="AV748" s="2"/>
       <c r="AW748" s="2"/>
     </row>
-    <row r="749" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -38993,7 +38992,7 @@
       <c r="AV749" s="2"/>
       <c r="AW749" s="2"/>
     </row>
-    <row r="750" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -39044,7 +39043,7 @@
       <c r="AV750" s="2"/>
       <c r="AW750" s="2"/>
     </row>
-    <row r="751" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -39095,7 +39094,7 @@
       <c r="AV751" s="2"/>
       <c r="AW751" s="2"/>
     </row>
-    <row r="752" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -39146,7 +39145,7 @@
       <c r="AV752" s="2"/>
       <c r="AW752" s="2"/>
     </row>
-    <row r="753" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -39197,7 +39196,7 @@
       <c r="AV753" s="2"/>
       <c r="AW753" s="2"/>
     </row>
-    <row r="754" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -39248,7 +39247,7 @@
       <c r="AV754" s="2"/>
       <c r="AW754" s="2"/>
     </row>
-    <row r="755" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -39299,7 +39298,7 @@
       <c r="AV755" s="2"/>
       <c r="AW755" s="2"/>
     </row>
-    <row r="756" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -39350,7 +39349,7 @@
       <c r="AV756" s="2"/>
       <c r="AW756" s="2"/>
     </row>
-    <row r="757" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -39401,7 +39400,7 @@
       <c r="AV757" s="2"/>
       <c r="AW757" s="2"/>
     </row>
-    <row r="758" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -39452,7 +39451,7 @@
       <c r="AV758" s="2"/>
       <c r="AW758" s="2"/>
     </row>
-    <row r="759" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -39503,7 +39502,7 @@
       <c r="AV759" s="2"/>
       <c r="AW759" s="2"/>
     </row>
-    <row r="760" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -39554,7 +39553,7 @@
       <c r="AV760" s="2"/>
       <c r="AW760" s="2"/>
     </row>
-    <row r="761" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -39605,7 +39604,7 @@
       <c r="AV761" s="2"/>
       <c r="AW761" s="2"/>
     </row>
-    <row r="762" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -39656,7 +39655,7 @@
       <c r="AV762" s="2"/>
       <c r="AW762" s="2"/>
     </row>
-    <row r="763" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -39707,7 +39706,7 @@
       <c r="AV763" s="2"/>
       <c r="AW763" s="2"/>
     </row>
-    <row r="764" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -39758,7 +39757,7 @@
       <c r="AV764" s="2"/>
       <c r="AW764" s="2"/>
     </row>
-    <row r="765" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -39809,7 +39808,7 @@
       <c r="AV765" s="2"/>
       <c r="AW765" s="2"/>
     </row>
-    <row r="766" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -39860,7 +39859,7 @@
       <c r="AV766" s="2"/>
       <c r="AW766" s="2"/>
     </row>
-    <row r="767" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -39911,7 +39910,7 @@
       <c r="AV767" s="2"/>
       <c r="AW767" s="2"/>
     </row>
-    <row r="768" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -39962,7 +39961,7 @@
       <c r="AV768" s="2"/>
       <c r="AW768" s="2"/>
     </row>
-    <row r="769" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -40013,7 +40012,7 @@
       <c r="AV769" s="2"/>
       <c r="AW769" s="2"/>
     </row>
-    <row r="770" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -40064,7 +40063,7 @@
       <c r="AV770" s="2"/>
       <c r="AW770" s="2"/>
     </row>
-    <row r="771" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -40115,7 +40114,7 @@
       <c r="AV771" s="2"/>
       <c r="AW771" s="2"/>
     </row>
-    <row r="772" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -40166,7 +40165,7 @@
       <c r="AV772" s="2"/>
       <c r="AW772" s="2"/>
     </row>
-    <row r="773" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -40217,7 +40216,7 @@
       <c r="AV773" s="2"/>
       <c r="AW773" s="2"/>
     </row>
-    <row r="774" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -40268,7 +40267,7 @@
       <c r="AV774" s="2"/>
       <c r="AW774" s="2"/>
     </row>
-    <row r="775" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -40319,7 +40318,7 @@
       <c r="AV775" s="2"/>
       <c r="AW775" s="2"/>
     </row>
-    <row r="776" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -40370,7 +40369,7 @@
       <c r="AV776" s="2"/>
       <c r="AW776" s="2"/>
     </row>
-    <row r="777" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -40421,7 +40420,7 @@
       <c r="AV777" s="2"/>
       <c r="AW777" s="2"/>
     </row>
-    <row r="778" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -40472,7 +40471,7 @@
       <c r="AV778" s="2"/>
       <c r="AW778" s="2"/>
     </row>
-    <row r="779" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -40523,7 +40522,7 @@
       <c r="AV779" s="2"/>
       <c r="AW779" s="2"/>
     </row>
-    <row r="780" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -40574,7 +40573,7 @@
       <c r="AV780" s="2"/>
       <c r="AW780" s="2"/>
     </row>
-    <row r="781" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -40625,7 +40624,7 @@
       <c r="AV781" s="2"/>
       <c r="AW781" s="2"/>
     </row>
-    <row r="782" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -40676,7 +40675,7 @@
       <c r="AV782" s="2"/>
       <c r="AW782" s="2"/>
     </row>
-    <row r="783" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -40727,7 +40726,7 @@
       <c r="AV783" s="2"/>
       <c r="AW783" s="2"/>
     </row>
-    <row r="784" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -40778,7 +40777,7 @@
       <c r="AV784" s="2"/>
       <c r="AW784" s="2"/>
     </row>
-    <row r="785" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -40829,7 +40828,7 @@
       <c r="AV785" s="2"/>
       <c r="AW785" s="2"/>
     </row>
-    <row r="786" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -40880,7 +40879,7 @@
       <c r="AV786" s="2"/>
       <c r="AW786" s="2"/>
     </row>
-    <row r="787" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -40931,7 +40930,7 @@
       <c r="AV787" s="2"/>
       <c r="AW787" s="2"/>
     </row>
-    <row r="788" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -40982,7 +40981,7 @@
       <c r="AV788" s="2"/>
       <c r="AW788" s="2"/>
     </row>
-    <row r="789" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -41033,7 +41032,7 @@
       <c r="AV789" s="2"/>
       <c r="AW789" s="2"/>
     </row>
-    <row r="790" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -41084,7 +41083,7 @@
       <c r="AV790" s="2"/>
       <c r="AW790" s="2"/>
     </row>
-    <row r="791" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -41135,7 +41134,7 @@
       <c r="AV791" s="2"/>
       <c r="AW791" s="2"/>
     </row>
-    <row r="792" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -41186,7 +41185,7 @@
       <c r="AV792" s="2"/>
       <c r="AW792" s="2"/>
     </row>
-    <row r="793" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -41237,7 +41236,7 @@
       <c r="AV793" s="2"/>
       <c r="AW793" s="2"/>
     </row>
-    <row r="794" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -41288,7 +41287,7 @@
       <c r="AV794" s="2"/>
       <c r="AW794" s="2"/>
     </row>
-    <row r="795" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -41339,7 +41338,7 @@
       <c r="AV795" s="2"/>
       <c r="AW795" s="2"/>
     </row>
-    <row r="796" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -41390,7 +41389,7 @@
       <c r="AV796" s="2"/>
       <c r="AW796" s="2"/>
     </row>
-    <row r="797" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -41441,7 +41440,7 @@
       <c r="AV797" s="2"/>
       <c r="AW797" s="2"/>
     </row>
-    <row r="798" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -41492,7 +41491,7 @@
       <c r="AV798" s="2"/>
       <c r="AW798" s="2"/>
     </row>
-    <row r="799" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -41543,7 +41542,7 @@
       <c r="AV799" s="2"/>
       <c r="AW799" s="2"/>
     </row>
-    <row r="800" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -41594,7 +41593,7 @@
       <c r="AV800" s="2"/>
       <c r="AW800" s="2"/>
     </row>
-    <row r="801" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -41645,7 +41644,7 @@
       <c r="AV801" s="2"/>
       <c r="AW801" s="2"/>
     </row>
-    <row r="802" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -41696,7 +41695,7 @@
       <c r="AV802" s="2"/>
       <c r="AW802" s="2"/>
     </row>
-    <row r="803" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -41747,7 +41746,7 @@
       <c r="AV803" s="2"/>
       <c r="AW803" s="2"/>
     </row>
-    <row r="804" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -41798,7 +41797,7 @@
       <c r="AV804" s="2"/>
       <c r="AW804" s="2"/>
     </row>
-    <row r="805" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -41849,7 +41848,7 @@
       <c r="AV805" s="2"/>
       <c r="AW805" s="2"/>
     </row>
-    <row r="806" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -41900,7 +41899,7 @@
       <c r="AV806" s="2"/>
       <c r="AW806" s="2"/>
     </row>
-    <row r="807" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -41951,7 +41950,7 @@
       <c r="AV807" s="2"/>
       <c r="AW807" s="2"/>
     </row>
-    <row r="808" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -42002,7 +42001,7 @@
       <c r="AV808" s="2"/>
       <c r="AW808" s="2"/>
     </row>
-    <row r="809" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -42053,7 +42052,7 @@
       <c r="AV809" s="2"/>
       <c r="AW809" s="2"/>
     </row>
-    <row r="810" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -42104,7 +42103,7 @@
       <c r="AV810" s="2"/>
       <c r="AW810" s="2"/>
     </row>
-    <row r="811" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -42155,7 +42154,7 @@
       <c r="AV811" s="2"/>
       <c r="AW811" s="2"/>
     </row>
-    <row r="812" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -42206,7 +42205,7 @@
       <c r="AV812" s="2"/>
       <c r="AW812" s="2"/>
     </row>
-    <row r="813" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -42257,7 +42256,7 @@
       <c r="AV813" s="2"/>
       <c r="AW813" s="2"/>
     </row>
-    <row r="814" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -42308,7 +42307,7 @@
       <c r="AV814" s="2"/>
       <c r="AW814" s="2"/>
     </row>
-    <row r="815" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -42359,7 +42358,7 @@
       <c r="AV815" s="2"/>
       <c r="AW815" s="2"/>
     </row>
-    <row r="816" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -42410,7 +42409,7 @@
       <c r="AV816" s="2"/>
       <c r="AW816" s="2"/>
     </row>
-    <row r="817" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -42461,7 +42460,7 @@
       <c r="AV817" s="2"/>
       <c r="AW817" s="2"/>
     </row>
-    <row r="818" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -42512,7 +42511,7 @@
       <c r="AV818" s="2"/>
       <c r="AW818" s="2"/>
     </row>
-    <row r="819" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -42563,7 +42562,7 @@
       <c r="AV819" s="2"/>
       <c r="AW819" s="2"/>
     </row>
-    <row r="820" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -42614,7 +42613,7 @@
       <c r="AV820" s="2"/>
       <c r="AW820" s="2"/>
     </row>
-    <row r="821" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -42665,7 +42664,7 @@
       <c r="AV821" s="2"/>
       <c r="AW821" s="2"/>
     </row>
-    <row r="822" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -42716,7 +42715,7 @@
       <c r="AV822" s="2"/>
       <c r="AW822" s="2"/>
     </row>
-    <row r="823" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -42767,7 +42766,7 @@
       <c r="AV823" s="2"/>
       <c r="AW823" s="2"/>
     </row>
-    <row r="824" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -42818,7 +42817,7 @@
       <c r="AV824" s="2"/>
       <c r="AW824" s="2"/>
     </row>
-    <row r="825" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -42869,7 +42868,7 @@
       <c r="AV825" s="2"/>
       <c r="AW825" s="2"/>
     </row>
-    <row r="826" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -42920,7 +42919,7 @@
       <c r="AV826" s="2"/>
       <c r="AW826" s="2"/>
     </row>
-    <row r="827" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -42971,7 +42970,7 @@
       <c r="AV827" s="2"/>
       <c r="AW827" s="2"/>
     </row>
-    <row r="828" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -43022,7 +43021,7 @@
       <c r="AV828" s="2"/>
       <c r="AW828" s="2"/>
     </row>
-    <row r="829" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -43073,7 +43072,7 @@
       <c r="AV829" s="2"/>
       <c r="AW829" s="2"/>
     </row>
-    <row r="830" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -43124,7 +43123,7 @@
       <c r="AV830" s="2"/>
       <c r="AW830" s="2"/>
     </row>
-    <row r="831" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -43175,7 +43174,7 @@
       <c r="AV831" s="2"/>
       <c r="AW831" s="2"/>
     </row>
-    <row r="832" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -43226,7 +43225,7 @@
       <c r="AV832" s="2"/>
       <c r="AW832" s="2"/>
     </row>
-    <row r="833" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -43277,7 +43276,7 @@
       <c r="AV833" s="2"/>
       <c r="AW833" s="2"/>
     </row>
-    <row r="834" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -43328,7 +43327,7 @@
       <c r="AV834" s="2"/>
       <c r="AW834" s="2"/>
     </row>
-    <row r="835" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -43379,7 +43378,7 @@
       <c r="AV835" s="2"/>
       <c r="AW835" s="2"/>
     </row>
-    <row r="836" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -43430,7 +43429,7 @@
       <c r="AV836" s="2"/>
       <c r="AW836" s="2"/>
     </row>
-    <row r="837" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -43481,7 +43480,7 @@
       <c r="AV837" s="2"/>
       <c r="AW837" s="2"/>
     </row>
-    <row r="838" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -43532,7 +43531,7 @@
       <c r="AV838" s="2"/>
       <c r="AW838" s="2"/>
     </row>
-    <row r="839" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -43583,7 +43582,7 @@
       <c r="AV839" s="2"/>
       <c r="AW839" s="2"/>
     </row>
-    <row r="840" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -43634,7 +43633,7 @@
       <c r="AV840" s="2"/>
       <c r="AW840" s="2"/>
     </row>
-    <row r="841" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -43685,7 +43684,7 @@
       <c r="AV841" s="2"/>
       <c r="AW841" s="2"/>
     </row>
-    <row r="842" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -43736,7 +43735,7 @@
       <c r="AV842" s="2"/>
       <c r="AW842" s="2"/>
     </row>
-    <row r="843" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -43787,7 +43786,7 @@
       <c r="AV843" s="2"/>
       <c r="AW843" s="2"/>
     </row>
-    <row r="844" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -43838,7 +43837,7 @@
       <c r="AV844" s="2"/>
       <c r="AW844" s="2"/>
     </row>
-    <row r="845" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -43889,7 +43888,7 @@
       <c r="AV845" s="2"/>
       <c r="AW845" s="2"/>
     </row>
-    <row r="846" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -43940,7 +43939,7 @@
       <c r="AV846" s="2"/>
       <c r="AW846" s="2"/>
     </row>
-    <row r="847" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -43991,7 +43990,7 @@
       <c r="AV847" s="2"/>
       <c r="AW847" s="2"/>
     </row>
-    <row r="848" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -44042,7 +44041,7 @@
       <c r="AV848" s="2"/>
       <c r="AW848" s="2"/>
     </row>
-    <row r="849" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -44093,7 +44092,7 @@
       <c r="AV849" s="2"/>
       <c r="AW849" s="2"/>
     </row>
-    <row r="850" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -44144,7 +44143,7 @@
       <c r="AV850" s="2"/>
       <c r="AW850" s="2"/>
     </row>
-    <row r="851" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -44195,7 +44194,7 @@
       <c r="AV851" s="2"/>
       <c r="AW851" s="2"/>
     </row>
-    <row r="852" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -44246,7 +44245,7 @@
       <c r="AV852" s="2"/>
       <c r="AW852" s="2"/>
     </row>
-    <row r="853" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -44297,7 +44296,7 @@
       <c r="AV853" s="2"/>
       <c r="AW853" s="2"/>
     </row>
-    <row r="854" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -44348,7 +44347,7 @@
       <c r="AV854" s="2"/>
       <c r="AW854" s="2"/>
     </row>
-    <row r="855" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -44399,7 +44398,7 @@
       <c r="AV855" s="2"/>
       <c r="AW855" s="2"/>
     </row>
-    <row r="856" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -44450,7 +44449,7 @@
       <c r="AV856" s="2"/>
       <c r="AW856" s="2"/>
     </row>
-    <row r="857" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -44501,7 +44500,7 @@
       <c r="AV857" s="2"/>
       <c r="AW857" s="2"/>
     </row>
-    <row r="858" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -44552,7 +44551,7 @@
       <c r="AV858" s="2"/>
       <c r="AW858" s="2"/>
     </row>
-    <row r="859" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -44603,7 +44602,7 @@
       <c r="AV859" s="2"/>
       <c r="AW859" s="2"/>
     </row>
-    <row r="860" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -44654,7 +44653,7 @@
       <c r="AV860" s="2"/>
       <c r="AW860" s="2"/>
     </row>
-    <row r="861" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -44705,7 +44704,7 @@
       <c r="AV861" s="2"/>
       <c r="AW861" s="2"/>
     </row>
-    <row r="862" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -44756,7 +44755,7 @@
       <c r="AV862" s="2"/>
       <c r="AW862" s="2"/>
     </row>
-    <row r="863" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -44807,7 +44806,7 @@
       <c r="AV863" s="2"/>
       <c r="AW863" s="2"/>
     </row>
-    <row r="864" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -44858,7 +44857,7 @@
       <c r="AV864" s="2"/>
       <c r="AW864" s="2"/>
     </row>
-    <row r="865" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -44909,7 +44908,7 @@
       <c r="AV865" s="2"/>
       <c r="AW865" s="2"/>
     </row>
-    <row r="866" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -44960,7 +44959,7 @@
       <c r="AV866" s="2"/>
       <c r="AW866" s="2"/>
     </row>
-    <row r="867" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -45011,7 +45010,7 @@
       <c r="AV867" s="2"/>
       <c r="AW867" s="2"/>
     </row>
-    <row r="868" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -45062,7 +45061,7 @@
       <c r="AV868" s="2"/>
       <c r="AW868" s="2"/>
     </row>
-    <row r="869" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -45113,7 +45112,7 @@
       <c r="AV869" s="2"/>
       <c r="AW869" s="2"/>
     </row>
-    <row r="870" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -45164,7 +45163,7 @@
       <c r="AV870" s="2"/>
       <c r="AW870" s="2"/>
     </row>
-    <row r="871" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -45215,7 +45214,7 @@
       <c r="AV871" s="2"/>
       <c r="AW871" s="2"/>
     </row>
-    <row r="872" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -45266,7 +45265,7 @@
       <c r="AV872" s="2"/>
       <c r="AW872" s="2"/>
     </row>
-    <row r="873" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -45317,7 +45316,7 @@
       <c r="AV873" s="2"/>
       <c r="AW873" s="2"/>
     </row>
-    <row r="874" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -45368,7 +45367,7 @@
       <c r="AV874" s="2"/>
       <c r="AW874" s="2"/>
     </row>
-    <row r="875" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -45419,7 +45418,7 @@
       <c r="AV875" s="2"/>
       <c r="AW875" s="2"/>
     </row>
-    <row r="876" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -45470,7 +45469,7 @@
       <c r="AV876" s="2"/>
       <c r="AW876" s="2"/>
     </row>
-    <row r="877" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -45521,7 +45520,7 @@
       <c r="AV877" s="2"/>
       <c r="AW877" s="2"/>
     </row>
-    <row r="878" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -45572,7 +45571,7 @@
       <c r="AV878" s="2"/>
       <c r="AW878" s="2"/>
     </row>
-    <row r="879" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -45623,7 +45622,7 @@
       <c r="AV879" s="2"/>
       <c r="AW879" s="2"/>
     </row>
-    <row r="880" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -45674,7 +45673,7 @@
       <c r="AV880" s="2"/>
       <c r="AW880" s="2"/>
     </row>
-    <row r="881" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -45725,7 +45724,7 @@
       <c r="AV881" s="2"/>
       <c r="AW881" s="2"/>
     </row>
-    <row r="882" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -45776,7 +45775,7 @@
       <c r="AV882" s="2"/>
       <c r="AW882" s="2"/>
     </row>
-    <row r="883" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -45827,7 +45826,7 @@
       <c r="AV883" s="2"/>
       <c r="AW883" s="2"/>
     </row>
-    <row r="884" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -45878,7 +45877,7 @@
       <c r="AV884" s="2"/>
       <c r="AW884" s="2"/>
     </row>
-    <row r="885" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -45929,7 +45928,7 @@
       <c r="AV885" s="2"/>
       <c r="AW885" s="2"/>
     </row>
-    <row r="886" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -45980,7 +45979,7 @@
       <c r="AV886" s="2"/>
       <c r="AW886" s="2"/>
     </row>
-    <row r="887" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -46031,7 +46030,7 @@
       <c r="AV887" s="2"/>
       <c r="AW887" s="2"/>
     </row>
-    <row r="888" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -46082,7 +46081,7 @@
       <c r="AV888" s="2"/>
       <c r="AW888" s="2"/>
     </row>
-    <row r="889" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -46133,7 +46132,7 @@
       <c r="AV889" s="2"/>
       <c r="AW889" s="2"/>
     </row>
-    <row r="890" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -46184,7 +46183,7 @@
       <c r="AV890" s="2"/>
       <c r="AW890" s="2"/>
     </row>
-    <row r="891" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -46235,7 +46234,7 @@
       <c r="AV891" s="2"/>
       <c r="AW891" s="2"/>
     </row>
-    <row r="892" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -46286,7 +46285,7 @@
       <c r="AV892" s="2"/>
       <c r="AW892" s="2"/>
     </row>
-    <row r="893" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -46337,7 +46336,7 @@
       <c r="AV893" s="2"/>
       <c r="AW893" s="2"/>
     </row>
-    <row r="894" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -46388,7 +46387,7 @@
       <c r="AV894" s="2"/>
       <c r="AW894" s="2"/>
     </row>
-    <row r="895" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -46439,7 +46438,7 @@
       <c r="AV895" s="2"/>
       <c r="AW895" s="2"/>
     </row>
-    <row r="896" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -46490,7 +46489,7 @@
       <c r="AV896" s="2"/>
       <c r="AW896" s="2"/>
     </row>
-    <row r="897" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -46541,7 +46540,7 @@
       <c r="AV897" s="2"/>
       <c r="AW897" s="2"/>
     </row>
-    <row r="898" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -46592,7 +46591,7 @@
       <c r="AV898" s="2"/>
       <c r="AW898" s="2"/>
     </row>
-    <row r="899" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -46643,7 +46642,7 @@
       <c r="AV899" s="2"/>
       <c r="AW899" s="2"/>
     </row>
-    <row r="900" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -46694,7 +46693,7 @@
       <c r="AV900" s="2"/>
       <c r="AW900" s="2"/>
     </row>
-    <row r="901" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -46745,7 +46744,7 @@
       <c r="AV901" s="2"/>
       <c r="AW901" s="2"/>
     </row>
-    <row r="902" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -46796,7 +46795,7 @@
       <c r="AV902" s="2"/>
       <c r="AW902" s="2"/>
     </row>
-    <row r="903" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -46847,7 +46846,7 @@
       <c r="AV903" s="2"/>
       <c r="AW903" s="2"/>
     </row>
-    <row r="904" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -46898,7 +46897,7 @@
       <c r="AV904" s="2"/>
       <c r="AW904" s="2"/>
     </row>
-    <row r="905" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -46949,7 +46948,7 @@
       <c r="AV905" s="2"/>
       <c r="AW905" s="2"/>
     </row>
-    <row r="906" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -47000,7 +46999,7 @@
       <c r="AV906" s="2"/>
       <c r="AW906" s="2"/>
     </row>
-    <row r="907" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -47051,7 +47050,7 @@
       <c r="AV907" s="2"/>
       <c r="AW907" s="2"/>
     </row>
-    <row r="908" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -47102,7 +47101,7 @@
       <c r="AV908" s="2"/>
       <c r="AW908" s="2"/>
     </row>
-    <row r="909" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -47153,7 +47152,7 @@
       <c r="AV909" s="2"/>
       <c r="AW909" s="2"/>
     </row>
-    <row r="910" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -47204,7 +47203,7 @@
       <c r="AV910" s="2"/>
       <c r="AW910" s="2"/>
     </row>
-    <row r="911" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -47255,7 +47254,7 @@
       <c r="AV911" s="2"/>
       <c r="AW911" s="2"/>
     </row>
-    <row r="912" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -47306,7 +47305,7 @@
       <c r="AV912" s="2"/>
       <c r="AW912" s="2"/>
     </row>
-    <row r="913" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -47357,7 +47356,7 @@
       <c r="AV913" s="2"/>
       <c r="AW913" s="2"/>
     </row>
-    <row r="914" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -47408,7 +47407,7 @@
       <c r="AV914" s="2"/>
       <c r="AW914" s="2"/>
     </row>
-    <row r="915" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -47459,7 +47458,7 @@
       <c r="AV915" s="2"/>
       <c r="AW915" s="2"/>
     </row>
-    <row r="916" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -47510,7 +47509,7 @@
       <c r="AV916" s="2"/>
       <c r="AW916" s="2"/>
     </row>
-    <row r="917" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -47561,7 +47560,7 @@
       <c r="AV917" s="2"/>
       <c r="AW917" s="2"/>
     </row>
-    <row r="918" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -47612,7 +47611,7 @@
       <c r="AV918" s="2"/>
       <c r="AW918" s="2"/>
     </row>
-    <row r="919" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -47663,7 +47662,7 @@
       <c r="AV919" s="2"/>
       <c r="AW919" s="2"/>
     </row>
-    <row r="920" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -47714,7 +47713,7 @@
       <c r="AV920" s="2"/>
       <c r="AW920" s="2"/>
     </row>
-    <row r="921" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -47765,7 +47764,7 @@
       <c r="AV921" s="2"/>
       <c r="AW921" s="2"/>
     </row>
-    <row r="922" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -47816,7 +47815,7 @@
       <c r="AV922" s="2"/>
       <c r="AW922" s="2"/>
     </row>
-    <row r="923" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -47867,7 +47866,7 @@
       <c r="AV923" s="2"/>
       <c r="AW923" s="2"/>
     </row>
-    <row r="924" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -47918,7 +47917,7 @@
       <c r="AV924" s="2"/>
       <c r="AW924" s="2"/>
     </row>
-    <row r="925" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -47969,7 +47968,7 @@
       <c r="AV925" s="2"/>
       <c r="AW925" s="2"/>
     </row>
-    <row r="926" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -48020,7 +48019,7 @@
       <c r="AV926" s="2"/>
       <c r="AW926" s="2"/>
     </row>
-    <row r="927" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -48071,7 +48070,7 @@
       <c r="AV927" s="2"/>
       <c r="AW927" s="2"/>
     </row>
-    <row r="928" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -48122,7 +48121,7 @@
       <c r="AV928" s="2"/>
       <c r="AW928" s="2"/>
     </row>
-    <row r="929" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -48173,7 +48172,7 @@
       <c r="AV929" s="2"/>
       <c r="AW929" s="2"/>
     </row>
-    <row r="930" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -48224,7 +48223,7 @@
       <c r="AV930" s="2"/>
       <c r="AW930" s="2"/>
     </row>
-    <row r="931" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -48275,7 +48274,7 @@
       <c r="AV931" s="2"/>
       <c r="AW931" s="2"/>
     </row>
-    <row r="932" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -48326,7 +48325,7 @@
       <c r="AV932" s="2"/>
       <c r="AW932" s="2"/>
     </row>
-    <row r="933" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -48377,7 +48376,7 @@
       <c r="AV933" s="2"/>
       <c r="AW933" s="2"/>
     </row>
-    <row r="934" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -48428,7 +48427,7 @@
       <c r="AV934" s="2"/>
       <c r="AW934" s="2"/>
     </row>
-    <row r="935" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -48479,7 +48478,7 @@
       <c r="AV935" s="2"/>
       <c r="AW935" s="2"/>
     </row>
-    <row r="936" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -48530,7 +48529,7 @@
       <c r="AV936" s="2"/>
       <c r="AW936" s="2"/>
     </row>
-    <row r="937" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -48581,7 +48580,7 @@
       <c r="AV937" s="2"/>
       <c r="AW937" s="2"/>
     </row>
-    <row r="938" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -48632,7 +48631,7 @@
       <c r="AV938" s="2"/>
       <c r="AW938" s="2"/>
     </row>
-    <row r="939" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -48683,7 +48682,7 @@
       <c r="AV939" s="2"/>
       <c r="AW939" s="2"/>
     </row>
-    <row r="940" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -48734,7 +48733,7 @@
       <c r="AV940" s="2"/>
       <c r="AW940" s="2"/>
     </row>
-    <row r="941" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -48785,7 +48784,7 @@
       <c r="AV941" s="2"/>
       <c r="AW941" s="2"/>
     </row>
-    <row r="942" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -48836,7 +48835,7 @@
       <c r="AV942" s="2"/>
       <c r="AW942" s="2"/>
     </row>
-    <row r="943" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -48887,7 +48886,7 @@
       <c r="AV943" s="2"/>
       <c r="AW943" s="2"/>
     </row>
-    <row r="944" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -48938,7 +48937,7 @@
       <c r="AV944" s="2"/>
       <c r="AW944" s="2"/>
     </row>
-    <row r="945" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -48989,7 +48988,7 @@
       <c r="AV945" s="2"/>
       <c r="AW945" s="2"/>
     </row>
-    <row r="946" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -49040,7 +49039,7 @@
       <c r="AV946" s="2"/>
       <c r="AW946" s="2"/>
     </row>
-    <row r="947" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -49091,7 +49090,7 @@
       <c r="AV947" s="2"/>
       <c r="AW947" s="2"/>
     </row>
-    <row r="948" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -49142,7 +49141,7 @@
       <c r="AV948" s="2"/>
       <c r="AW948" s="2"/>
     </row>
-    <row r="949" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -49193,7 +49192,7 @@
       <c r="AV949" s="2"/>
       <c r="AW949" s="2"/>
     </row>
-    <row r="950" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -49244,7 +49243,7 @@
       <c r="AV950" s="2"/>
       <c r="AW950" s="2"/>
     </row>
-    <row r="951" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -49295,7 +49294,7 @@
       <c r="AV951" s="2"/>
       <c r="AW951" s="2"/>
     </row>
-    <row r="952" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -49346,7 +49345,7 @@
       <c r="AV952" s="2"/>
       <c r="AW952" s="2"/>
     </row>
-    <row r="953" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -49397,7 +49396,7 @@
       <c r="AV953" s="2"/>
       <c r="AW953" s="2"/>
     </row>
-    <row r="954" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -49448,7 +49447,7 @@
       <c r="AV954" s="2"/>
       <c r="AW954" s="2"/>
     </row>
-    <row r="955" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -49499,7 +49498,7 @@
       <c r="AV955" s="2"/>
       <c r="AW955" s="2"/>
     </row>
-    <row r="956" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -49550,7 +49549,7 @@
       <c r="AV956" s="2"/>
       <c r="AW956" s="2"/>
     </row>
-    <row r="957" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -49601,7 +49600,7 @@
       <c r="AV957" s="2"/>
       <c r="AW957" s="2"/>
     </row>
-    <row r="958" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -49652,7 +49651,7 @@
       <c r="AV958" s="2"/>
       <c r="AW958" s="2"/>
     </row>
-    <row r="959" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -49703,7 +49702,7 @@
       <c r="AV959" s="2"/>
       <c r="AW959" s="2"/>
     </row>
-    <row r="960" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -49754,7 +49753,7 @@
       <c r="AV960" s="2"/>
       <c r="AW960" s="2"/>
     </row>
-    <row r="961" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -49805,7 +49804,7 @@
       <c r="AV961" s="2"/>
       <c r="AW961" s="2"/>
     </row>
-    <row r="962" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -49856,7 +49855,7 @@
       <c r="AV962" s="2"/>
       <c r="AW962" s="2"/>
     </row>
-    <row r="963" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -49907,7 +49906,7 @@
       <c r="AV963" s="2"/>
       <c r="AW963" s="2"/>
     </row>
-    <row r="964" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -49958,7 +49957,7 @@
       <c r="AV964" s="2"/>
       <c r="AW964" s="2"/>
     </row>
-    <row r="965" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -50009,7 +50008,7 @@
       <c r="AV965" s="2"/>
       <c r="AW965" s="2"/>
     </row>
-    <row r="966" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -50060,7 +50059,7 @@
       <c r="AV966" s="2"/>
       <c r="AW966" s="2"/>
     </row>
-    <row r="967" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -50111,7 +50110,7 @@
       <c r="AV967" s="2"/>
       <c r="AW967" s="2"/>
     </row>
-    <row r="968" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -50162,7 +50161,7 @@
       <c r="AV968" s="2"/>
       <c r="AW968" s="2"/>
     </row>
-    <row r="969" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -50213,7 +50212,7 @@
       <c r="AV969" s="2"/>
       <c r="AW969" s="2"/>
     </row>
-    <row r="970" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -50264,7 +50263,7 @@
       <c r="AV970" s="2"/>
       <c r="AW970" s="2"/>
     </row>
-    <row r="971" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -50315,7 +50314,7 @@
       <c r="AV971" s="2"/>
       <c r="AW971" s="2"/>
     </row>
-    <row r="972" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -50366,7 +50365,7 @@
       <c r="AV972" s="2"/>
       <c r="AW972" s="2"/>
     </row>
-    <row r="973" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -50417,7 +50416,7 @@
       <c r="AV973" s="2"/>
       <c r="AW973" s="2"/>
     </row>
-    <row r="974" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -50468,7 +50467,7 @@
       <c r="AV974" s="2"/>
       <c r="AW974" s="2"/>
     </row>
-    <row r="975" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -50519,7 +50518,7 @@
       <c r="AV975" s="2"/>
       <c r="AW975" s="2"/>
     </row>
-    <row r="976" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -50570,7 +50569,7 @@
       <c r="AV976" s="2"/>
       <c r="AW976" s="2"/>
     </row>
-    <row r="977" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -50621,7 +50620,7 @@
       <c r="AV977" s="2"/>
       <c r="AW977" s="2"/>
     </row>
-    <row r="978" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -50672,7 +50671,7 @@
       <c r="AV978" s="2"/>
       <c r="AW978" s="2"/>
     </row>
-    <row r="979" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -50723,7 +50722,7 @@
       <c r="AV979" s="2"/>
       <c r="AW979" s="2"/>
     </row>
-    <row r="980" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -50774,7 +50773,7 @@
       <c r="AV980" s="2"/>
       <c r="AW980" s="2"/>
     </row>
-    <row r="981" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -50825,7 +50824,7 @@
       <c r="AV981" s="2"/>
       <c r="AW981" s="2"/>
     </row>
-    <row r="982" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -50876,7 +50875,7 @@
       <c r="AV982" s="2"/>
       <c r="AW982" s="2"/>
     </row>
-    <row r="983" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -50927,7 +50926,7 @@
       <c r="AV983" s="2"/>
       <c r="AW983" s="2"/>
     </row>
-    <row r="984" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -50978,7 +50977,7 @@
       <c r="AV984" s="2"/>
       <c r="AW984" s="2"/>
     </row>
-    <row r="985" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -51029,7 +51028,7 @@
       <c r="AV985" s="2"/>
       <c r="AW985" s="2"/>
     </row>
-    <row r="986" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -51080,7 +51079,7 @@
       <c r="AV986" s="2"/>
       <c r="AW986" s="2"/>
     </row>
-    <row r="987" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -51131,7 +51130,7 @@
       <c r="AV987" s="2"/>
       <c r="AW987" s="2"/>
     </row>
-    <row r="988" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -51182,7 +51181,7 @@
       <c r="AV988" s="2"/>
       <c r="AW988" s="2"/>
     </row>
-    <row r="989" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -51233,7 +51232,7 @@
       <c r="AV989" s="2"/>
       <c r="AW989" s="2"/>
     </row>
-    <row r="990" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -51284,7 +51283,7 @@
       <c r="AV990" s="2"/>
       <c r="AW990" s="2"/>
     </row>
-    <row r="991" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -51335,7 +51334,7 @@
       <c r="AV991" s="2"/>
       <c r="AW991" s="2"/>
     </row>
-    <row r="992" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -51386,7 +51385,7 @@
       <c r="AV992" s="2"/>
       <c r="AW992" s="2"/>
     </row>
-    <row r="993" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -51437,7 +51436,7 @@
       <c r="AV993" s="2"/>
       <c r="AW993" s="2"/>
     </row>
-    <row r="994" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -51488,7 +51487,7 @@
       <c r="AV994" s="2"/>
       <c r="AW994" s="2"/>
     </row>
-    <row r="995" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -51539,7 +51538,7 @@
       <c r="AV995" s="2"/>
       <c r="AW995" s="2"/>
     </row>
-    <row r="996" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>

--- a/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
+++ b/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1011FB2E-E136-4DA2-9FED-1CA33BE2FBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02CB1DC-232F-4A86-9249-984CA28D3C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
+++ b/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02CB1DC-232F-4A86-9249-984CA28D3C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13308256-3AD8-4D5D-B7B6-7BDCD3970D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -299,9 +299,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -339,7 +339,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -445,7 +445,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -587,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
+++ b/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F16D65-3C13-4D7A-86B1-A9AB966D2007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604E33F8-4D9A-4455-A94D-002BEF5CE1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -299,9 +299,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -339,7 +339,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -445,7 +445,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -587,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
+++ b/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604E33F8-4D9A-4455-A94D-002BEF5CE1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA1F7C6-C615-49DD-A179-7687281E4B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
+++ b/Data Files/Input Validation/26. moo/Auto_Moo_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA1F7C6-C615-49DD-A179-7687281E4B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F7C19D-2FA1-4FC1-8312-4A8D1206C74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
